--- a/RT1_Oracle_開発演習_テスト仕様書_team_1.0.0.xlsx
+++ b/RT1_Oracle_開発演習_テスト仕様書_team_1.0.0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="123">
   <si>
     <t xml:space="preserve">関係者外秘</t>
   </si>
@@ -239,7 +239,7 @@
   </si>
   <si>
     <t xml:space="preserve">メニュー画面にて下記内容を入力
-入力内容：XXXX</t>
+入力内容：2</t>
   </si>
   <si>
     <t xml:space="preserve">下記のエラーメッセージが表示され、入力状態となる。
@@ -247,7 +247,7 @@
   </si>
   <si>
     <t xml:space="preserve">メッセージ「社員名を入力してください:」の後に下記内容を入力
-入力内容：XXXX</t>
+入力内容：郎</t>
   </si>
   <si>
     <r>
@@ -313,6 +313,10 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">メッセージ「社員名を入力してください:」の後に下記内容を入力
+入力内容：AAA</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -350,6 +354,10 @@
   <si>
     <t xml:space="preserve">※SQLインジェクションのチェックを行う
 メッセージ「社員名を入力してください:」の後に下記内容を入力
+入力内容：’’OR1=1--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メニュー画面にて下記内容を入力
 入力内容：XXXX</t>
   </si>
   <si>
@@ -1725,7 +1733,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="26.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
@@ -1739,7 +1747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
@@ -1749,7 +1757,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1759,7 +1767,7 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1769,7 +1777,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1779,7 +1787,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1789,7 +1797,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1799,7 +1807,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1809,7 +1817,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1819,7 +1827,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
@@ -1829,7 +1837,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1839,7 +1847,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
@@ -1849,7 +1857,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
@@ -1859,7 +1867,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -1869,7 +1877,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
@@ -1904,9 +1912,9 @@
   <dimension ref="B1:M110"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.43359375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1921,7 +1929,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="14" style="12" width="15.43"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="14" customFormat="true" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="15" t="s">
         <v>26</v>
       </c>
@@ -1953,7 +1961,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="21" t="s">
         <v>30</v>
       </c>
@@ -2039,7 +2047,7 @@
       <c r="K5" s="27"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>3</v>
@@ -2098,7 +2106,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
     </row>
-    <row r="8" customFormat="false" ht="45.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>5</v>
@@ -2138,14 +2146,20 @@
       <c r="E9" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="F9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="28" t="n">
+        <v>45887</v>
+      </c>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
     </row>
-    <row r="10" customFormat="false" ht="212" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="211.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>7</v>
@@ -2157,52 +2171,70 @@
       <c r="E10" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
+      <c r="F10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="28" t="n">
+        <v>45887</v>
+      </c>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
     </row>
-    <row r="11" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>8</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
+        <v>56</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="28" t="n">
+        <v>45887</v>
+      </c>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>9</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
+      <c r="F12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="28" t="n">
+        <v>45887</v>
+      </c>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
     </row>
-    <row r="13" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>10</v>
@@ -2214,9 +2246,15 @@
       <c r="E13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
+      <c r="F13" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="28" t="n">
+        <v>45887</v>
+      </c>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -2231,10 +2269,10 @@
         <v>15</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -2250,10 +2288,10 @@
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
@@ -2262,17 +2300,17 @@
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
     </row>
-    <row r="16" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>13</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -2281,7 +2319,7 @@
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
     </row>
-    <row r="17" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>14</v>
@@ -2310,10 +2348,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -2322,17 +2360,17 @@
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
     </row>
-    <row r="19" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>16</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
@@ -2341,17 +2379,17 @@
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
     </row>
-    <row r="20" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>17</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
@@ -2360,17 +2398,17 @@
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
     </row>
-    <row r="21" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>18</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -2379,17 +2417,17 @@
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>19</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
@@ -2398,17 +2436,17 @@
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
     </row>
-    <row r="23" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="91.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>20</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
@@ -2417,7 +2455,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>21</v>
@@ -2443,13 +2481,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
@@ -2458,17 +2496,17 @@
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
     </row>
-    <row r="26" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>23</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
@@ -2477,17 +2515,17 @@
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
     </row>
-    <row r="27" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>24</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
@@ -2496,17 +2534,17 @@
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
     </row>
-    <row r="28" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>25</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
@@ -2515,17 +2553,17 @@
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
     </row>
-    <row r="29" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>26</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
@@ -2534,17 +2572,17 @@
       <c r="J29" s="27"/>
       <c r="K29" s="27"/>
     </row>
-    <row r="30" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>27</v>
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
@@ -2553,17 +2591,17 @@
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
     </row>
-    <row r="31" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="91.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>28</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
@@ -2572,17 +2610,17 @@
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
     </row>
-    <row r="32" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>29</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
@@ -2591,7 +2629,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
     </row>
-    <row r="33" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>30</v>
@@ -2620,10 +2658,10 @@
         <v>18</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
@@ -2632,17 +2670,17 @@
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
     </row>
-    <row r="35" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>32</v>
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
@@ -2651,17 +2689,17 @@
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
     </row>
-    <row r="36" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>33</v>
       </c>
       <c r="C36" s="24"/>
       <c r="D36" s="30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
@@ -2670,17 +2708,17 @@
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
     </row>
-    <row r="37" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>34</v>
       </c>
       <c r="C37" s="24"/>
       <c r="D37" s="26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
@@ -2689,7 +2727,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
     </row>
-    <row r="38" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>35</v>
@@ -2718,10 +2756,10 @@
         <v>19</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
@@ -2737,10 +2775,10 @@
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
@@ -2756,10 +2794,10 @@
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="26" t="s">
         <v>91</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>89</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -2775,10 +2813,10 @@
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
@@ -2794,10 +2832,10 @@
       </c>
       <c r="C43" s="24"/>
       <c r="D43" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
@@ -2806,7 +2844,7 @@
       <c r="J43" s="27"/>
       <c r="K43" s="27"/>
     </row>
-    <row r="44" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>41</v>
@@ -2835,10 +2873,10 @@
         <v>20</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
@@ -2854,10 +2892,10 @@
       </c>
       <c r="C46" s="24"/>
       <c r="D46" s="26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
@@ -2873,10 +2911,10 @@
       </c>
       <c r="C47" s="24"/>
       <c r="D47" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
@@ -2885,7 +2923,7 @@
       <c r="J47" s="27"/>
       <c r="K47" s="27"/>
     </row>
-    <row r="48" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>45</v>
@@ -2914,10 +2952,10 @@
         <v>21</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
@@ -2933,10 +2971,10 @@
       </c>
       <c r="C50" s="24"/>
       <c r="D50" s="26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
@@ -2952,10 +2990,10 @@
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="26" t="s">
         <v>99</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>97</v>
       </c>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
@@ -2971,10 +3009,10 @@
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="26" t="s">
         <v>99</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>97</v>
       </c>
       <c r="F52" s="27"/>
       <c r="G52" s="27"/>
@@ -2990,10 +3028,10 @@
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
@@ -3009,10 +3047,10 @@
       </c>
       <c r="C54" s="24"/>
       <c r="D54" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F54" s="27"/>
       <c r="G54" s="27"/>
@@ -3021,7 +3059,7 @@
       <c r="J54" s="27"/>
       <c r="K54" s="27"/>
     </row>
-    <row r="55" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>52</v>
@@ -3050,10 +3088,10 @@
         <v>22</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
@@ -3069,10 +3107,10 @@
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F57" s="27"/>
       <c r="G57" s="27"/>
@@ -3088,10 +3126,10 @@
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F58" s="27"/>
       <c r="G58" s="27"/>
@@ -3107,10 +3145,10 @@
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F59" s="27"/>
       <c r="G59" s="27"/>
@@ -3126,10 +3164,10 @@
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F60" s="27"/>
       <c r="G60" s="27"/>
@@ -3145,10 +3183,10 @@
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
@@ -3164,10 +3202,10 @@
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F62" s="27"/>
       <c r="G62" s="27"/>
@@ -3183,10 +3221,10 @@
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
@@ -3202,10 +3240,10 @@
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="26" t="s">
         <v>106</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>104</v>
       </c>
       <c r="F64" s="27"/>
       <c r="G64" s="27"/>
@@ -3221,10 +3259,10 @@
       </c>
       <c r="C65" s="24"/>
       <c r="D65" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
@@ -3240,10 +3278,10 @@
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
@@ -3259,10 +3297,10 @@
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
@@ -3278,10 +3316,10 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F68" s="27"/>
       <c r="G68" s="27"/>
@@ -3297,10 +3335,10 @@
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
@@ -3316,10 +3354,10 @@
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F70" s="27"/>
       <c r="G70" s="27"/>
@@ -3335,10 +3373,10 @@
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
@@ -3354,10 +3392,10 @@
       </c>
       <c r="C72" s="24"/>
       <c r="D72" s="26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F72" s="27"/>
       <c r="G72" s="27"/>
@@ -3373,10 +3411,10 @@
       </c>
       <c r="C73" s="24"/>
       <c r="D73" s="26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
@@ -3392,10 +3430,10 @@
       </c>
       <c r="C74" s="24"/>
       <c r="D74" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F74" s="27"/>
       <c r="G74" s="27"/>
@@ -3404,7 +3442,7 @@
       <c r="J74" s="27"/>
       <c r="K74" s="27"/>
     </row>
-    <row r="75" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>72</v>
@@ -3433,10 +3471,10 @@
         <v>23</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F76" s="27"/>
       <c r="G76" s="27"/>
@@ -3452,10 +3490,10 @@
       </c>
       <c r="C77" s="24"/>
       <c r="D77" s="26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
@@ -3471,10 +3509,10 @@
       </c>
       <c r="C78" s="24"/>
       <c r="D78" s="26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
@@ -3490,10 +3528,10 @@
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
@@ -3509,10 +3547,10 @@
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F80" s="27"/>
       <c r="G80" s="27"/>
@@ -3528,10 +3566,10 @@
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
@@ -3547,10 +3585,10 @@
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
@@ -3566,10 +3604,10 @@
       </c>
       <c r="C83" s="24"/>
       <c r="D83" s="26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
@@ -3585,10 +3623,10 @@
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
@@ -3604,10 +3642,10 @@
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F85" s="27"/>
       <c r="G85" s="27"/>
@@ -3623,10 +3661,10 @@
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F86" s="27"/>
       <c r="G86" s="27"/>
@@ -3642,10 +3680,10 @@
       </c>
       <c r="C87" s="24"/>
       <c r="D87" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
@@ -3661,10 +3699,10 @@
       </c>
       <c r="C88" s="24"/>
       <c r="D88" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
@@ -3680,10 +3718,10 @@
       </c>
       <c r="C89" s="24"/>
       <c r="D89" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F89" s="27"/>
       <c r="G89" s="27"/>
@@ -3699,10 +3737,10 @@
       </c>
       <c r="C90" s="24"/>
       <c r="D90" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F90" s="27"/>
       <c r="G90" s="27"/>
@@ -3718,10 +3756,10 @@
       </c>
       <c r="C91" s="24"/>
       <c r="D91" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F91" s="27"/>
       <c r="G91" s="27"/>
@@ -3737,10 +3775,10 @@
       </c>
       <c r="C92" s="24"/>
       <c r="D92" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F92" s="27"/>
       <c r="G92" s="27"/>
@@ -3756,10 +3794,10 @@
       </c>
       <c r="C93" s="24"/>
       <c r="D93" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F93" s="27"/>
       <c r="G93" s="27"/>
@@ -3775,10 +3813,10 @@
       </c>
       <c r="C94" s="24"/>
       <c r="D94" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F94" s="27"/>
       <c r="G94" s="27"/>
@@ -3794,10 +3832,10 @@
       </c>
       <c r="C95" s="24"/>
       <c r="D95" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
@@ -3813,10 +3851,10 @@
       </c>
       <c r="C96" s="24"/>
       <c r="D96" s="30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
@@ -3832,10 +3870,10 @@
       </c>
       <c r="C97" s="24"/>
       <c r="D97" s="33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
@@ -3851,10 +3889,10 @@
       </c>
       <c r="C98" s="24"/>
       <c r="D98" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F98" s="27"/>
       <c r="G98" s="27"/>
@@ -3863,7 +3901,7 @@
       <c r="J98" s="27"/>
       <c r="K98" s="27"/>
     </row>
-    <row r="99" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>96</v>
@@ -3892,10 +3930,10 @@
         <v>24</v>
       </c>
       <c r="D100" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E100" s="26" t="s">
         <v>113</v>
-      </c>
-      <c r="E100" s="26" t="s">
-        <v>111</v>
       </c>
       <c r="F100" s="27"/>
       <c r="G100" s="27"/>
@@ -3911,10 +3949,10 @@
       </c>
       <c r="C101" s="24"/>
       <c r="D101" s="30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F101" s="27"/>
       <c r="G101" s="27"/>
@@ -3930,10 +3968,10 @@
       </c>
       <c r="C102" s="24"/>
       <c r="D102" s="33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F102" s="27"/>
       <c r="G102" s="27"/>
@@ -3949,10 +3987,10 @@
       </c>
       <c r="C103" s="24"/>
       <c r="D103" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F103" s="27"/>
       <c r="G103" s="27"/>
@@ -3961,7 +3999,7 @@
       <c r="J103" s="27"/>
       <c r="K103" s="27"/>
     </row>
-    <row r="104" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>101</v>
@@ -3987,13 +4025,13 @@
         <v>102</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
@@ -4002,17 +4040,17 @@
       <c r="J105" s="27"/>
       <c r="K105" s="27"/>
     </row>
-    <row r="106" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="106.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>103</v>
       </c>
       <c r="C106" s="24"/>
       <c r="D106" s="26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F106" s="27"/>
       <c r="G106" s="27"/>
@@ -4021,17 +4059,17 @@
       <c r="J106" s="27"/>
       <c r="K106" s="27"/>
     </row>
-    <row r="107" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="106.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>104</v>
       </c>
       <c r="C107" s="24"/>
       <c r="D107" s="26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
@@ -4040,17 +4078,17 @@
       <c r="J107" s="27"/>
       <c r="K107" s="27"/>
     </row>
-    <row r="108" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="106.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>105</v>
       </c>
       <c r="C108" s="24"/>
       <c r="D108" s="26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
@@ -4059,17 +4097,17 @@
       <c r="J108" s="27"/>
       <c r="K108" s="27"/>
     </row>
-    <row r="109" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="106.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>106</v>
       </c>
       <c r="C109" s="24"/>
       <c r="D109" s="26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F109" s="27"/>
       <c r="G109" s="27"/>
@@ -4078,7 +4116,7 @@
       <c r="J109" s="27"/>
       <c r="K109" s="27"/>
     </row>
-    <row r="110" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>107</v>

--- a/RT1_Oracle_開発演習_テスト仕様書_team_1.0.0.xlsx
+++ b/RT1_Oracle_開発演習_テスト仕様書_team_1.0.0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="125">
   <si>
     <t xml:space="preserve">関係者外秘</t>
   </si>
@@ -444,13 +444,17 @@
 2.メニューが表示される。</t>
   </si>
   <si>
+    <t xml:space="preserve">メニュー画面にて下記内容を入力
+入力内容：4</t>
+  </si>
+  <si>
     <t xml:space="preserve">下記のメッセージが表示され、入力状態となる。
 メッセージ内容：社員名：</t>
   </si>
   <si>
     <t xml:space="preserve">※登録項目はNo15の表示結果に合わせること
 社員名に下記内容を入力
-入力内容：XXXX</t>
+入力内容：山田太郎</t>
   </si>
   <si>
     <t xml:space="preserve">下記のメッセージが表示され、入力状態となる。
@@ -459,7 +463,7 @@
   <si>
     <t xml:space="preserve">※登録項目はNo15の表示結果に合わせること
 性別に下記内容を入力
-入力内容：XXXX</t>
+入力内容：1</t>
   </si>
   <si>
     <t xml:space="preserve">下記のメッセージが表示され、入力状態となる。
@@ -468,7 +472,7 @@
   <si>
     <t xml:space="preserve">※登録項目はNo15の表示結果に合わせること
 生年月日に下記内容を入力
-入力内容：XXXX</t>
+入力内容：1999/1/23</t>
   </si>
   <si>
     <t xml:space="preserve">下記のメッセージが表示され、入力状態となる。
@@ -477,7 +481,7 @@
   <si>
     <t xml:space="preserve">※登録項目はNo15の表示結果に合わせること
 部署IDに下記内容を入力
-入力内容：XXXX</t>
+入力内容：1</t>
   </si>
   <si>
     <t xml:space="preserve">1. 下記のメッセージが表示される。
@@ -485,10 +489,6 @@
 2. メニューが表示される。 </t>
   </si>
   <si>
-    <t xml:space="preserve">メニュー画面にて下記内容を入力
-入力内容：</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -714,12 +714,16 @@
 入力内容：XXXX</t>
   </si>
   <si>
+    <t xml:space="preserve">メニュー画面にて下記内容を入力
+入力内容：6</t>
+  </si>
+  <si>
     <t xml:space="preserve">下記のメッセージが表示され、入力状態となる。
 メッセージ内容：削除する社員の社員IDを入力してください:</t>
   </si>
   <si>
     <t xml:space="preserve">メッセージ「削除する社員の社員IDを入力してください:」の後に、前述の更新処理で更新された社員情報の社員IDを入力
-入力内容：XXXX</t>
+入力内容：6</t>
   </si>
   <si>
     <t xml:space="preserve">1. 下記のメッセージが表示される。
@@ -728,7 +732,12 @@
   </si>
   <si>
     <t xml:space="preserve">メッセージ「削除する社員の社員IDを入力してください:」の後に、存在しない社員IDを入力する
-入力内容：XXXX</t>
+入力内容：100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.下記のメッセージが表示される。
+対象者がいませんでした
+2.メニューが表示される。</t>
   </si>
   <si>
     <t xml:space="preserve">社員情報の一覧画面にて、前項目の作業で入力した社員IDに該当する社員情報が表示されていない</t>
@@ -1057,13 +1066,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="[$-411]yyyy/m/d"/>
     <numFmt numFmtId="168" formatCode="[$-411]yyyy/m/d\ h:mm"/>
     <numFmt numFmtId="169" formatCode="m\月d\日"/>
+    <numFmt numFmtId="170" formatCode="m\月d\日"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1278,7 +1288,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1404,6 +1414,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1911,10 +1925,10 @@
   </sheetPr>
   <dimension ref="B1:M110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.43359375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2106,7 +2120,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
     </row>
-    <row r="8" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>5</v>
@@ -2348,14 +2362,20 @@
         <v>16</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+        <v>65</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="32" t="n">
+        <v>45888</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
@@ -2367,14 +2387,20 @@
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
+        <v>67</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="32" t="n">
+        <v>45888</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
@@ -2386,14 +2412,20 @@
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="32" t="n">
+        <v>45888</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -2405,14 +2437,20 @@
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="32" t="n">
+        <v>45888</v>
+      </c>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -2424,33 +2462,45 @@
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+        <v>73</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="32" t="n">
+        <v>45888</v>
+      </c>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
     </row>
-    <row r="23" customFormat="false" ht="91.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="91.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>20</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="26" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
+      <c r="F23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="32" t="n">
+        <v>45888</v>
+      </c>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
@@ -2467,9 +2517,15 @@
       <c r="E24" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
+      <c r="F24" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="32" t="n">
+        <v>45888</v>
+      </c>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
@@ -2506,7 +2562,7 @@
         <v>77</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
@@ -2525,7 +2581,7 @@
         <v>78</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
@@ -2544,7 +2600,7 @@
         <v>79</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
@@ -2563,7 +2619,7 @@
         <v>80</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
@@ -2658,14 +2714,20 @@
         <v>18</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
+        <v>86</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="32" t="n">
+        <v>45888</v>
+      </c>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
@@ -2677,14 +2739,20 @@
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
+        <v>88</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="32" t="n">
+        <v>45888</v>
+      </c>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
@@ -2696,33 +2764,45 @@
       </c>
       <c r="C36" s="24"/>
       <c r="D36" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
+        <v>89</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="32" t="n">
+        <v>45888</v>
+      </c>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
     </row>
-    <row r="37" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="31.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>34</v>
       </c>
       <c r="C37" s="24"/>
       <c r="D37" s="26" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
+        <v>91</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="32" t="n">
+        <v>45888</v>
+      </c>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
@@ -2739,9 +2819,15 @@
       <c r="E38" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
+      <c r="F38" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="32" t="n">
+        <v>45888</v>
+      </c>
       <c r="I38" s="27"/>
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
@@ -2756,10 +2842,10 @@
         <v>19</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
@@ -2775,10 +2861,10 @@
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
@@ -2794,10 +2880,10 @@
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>91</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -2813,10 +2899,10 @@
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
@@ -2832,10 +2918,10 @@
       </c>
       <c r="C43" s="24"/>
       <c r="D43" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
@@ -2873,10 +2959,10 @@
         <v>20</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
@@ -2892,10 +2978,10 @@
       </c>
       <c r="C46" s="24"/>
       <c r="D46" s="26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
@@ -2911,10 +2997,10 @@
       </c>
       <c r="C47" s="24"/>
       <c r="D47" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
@@ -2952,10 +3038,10 @@
         <v>21</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
@@ -2971,10 +3057,10 @@
       </c>
       <c r="C50" s="24"/>
       <c r="D50" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
@@ -2990,10 +3076,10 @@
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="26" t="s">
         <v>101</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>99</v>
       </c>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
@@ -3009,10 +3095,10 @@
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="26" t="s">
         <v>101</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>99</v>
       </c>
       <c r="F52" s="27"/>
       <c r="G52" s="27"/>
@@ -3028,10 +3114,10 @@
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
@@ -3047,10 +3133,10 @@
       </c>
       <c r="C54" s="24"/>
       <c r="D54" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F54" s="27"/>
       <c r="G54" s="27"/>
@@ -3088,10 +3174,10 @@
         <v>22</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
@@ -3107,10 +3193,10 @@
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F57" s="27"/>
       <c r="G57" s="27"/>
@@ -3126,10 +3212,10 @@
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F58" s="27"/>
       <c r="G58" s="27"/>
@@ -3145,10 +3231,10 @@
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F59" s="27"/>
       <c r="G59" s="27"/>
@@ -3164,10 +3250,10 @@
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F60" s="27"/>
       <c r="G60" s="27"/>
@@ -3183,10 +3269,10 @@
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
@@ -3202,10 +3288,10 @@
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F62" s="27"/>
       <c r="G62" s="27"/>
@@ -3221,10 +3307,10 @@
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
@@ -3240,10 +3326,10 @@
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E64" s="26" t="s">
         <v>108</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>106</v>
       </c>
       <c r="F64" s="27"/>
       <c r="G64" s="27"/>
@@ -3259,10 +3345,10 @@
       </c>
       <c r="C65" s="24"/>
       <c r="D65" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
@@ -3278,10 +3364,10 @@
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
@@ -3297,10 +3383,10 @@
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
@@ -3316,10 +3402,10 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F68" s="27"/>
       <c r="G68" s="27"/>
@@ -3335,10 +3421,10 @@
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
@@ -3354,10 +3440,10 @@
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F70" s="27"/>
       <c r="G70" s="27"/>
@@ -3373,10 +3459,10 @@
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
@@ -3392,10 +3478,10 @@
       </c>
       <c r="C72" s="24"/>
       <c r="D72" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F72" s="27"/>
       <c r="G72" s="27"/>
@@ -3411,10 +3497,10 @@
       </c>
       <c r="C73" s="24"/>
       <c r="D73" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
@@ -3430,10 +3516,10 @@
       </c>
       <c r="C74" s="24"/>
       <c r="D74" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F74" s="27"/>
       <c r="G74" s="27"/>
@@ -3471,10 +3557,10 @@
         <v>23</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F76" s="27"/>
       <c r="G76" s="27"/>
@@ -3490,10 +3576,10 @@
       </c>
       <c r="C77" s="24"/>
       <c r="D77" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
@@ -3509,10 +3595,10 @@
       </c>
       <c r="C78" s="24"/>
       <c r="D78" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
@@ -3528,10 +3614,10 @@
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
@@ -3547,10 +3633,10 @@
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F80" s="27"/>
       <c r="G80" s="27"/>
@@ -3566,10 +3652,10 @@
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
@@ -3585,10 +3671,10 @@
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
@@ -3604,10 +3690,10 @@
       </c>
       <c r="C83" s="24"/>
       <c r="D83" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
@@ -3623,10 +3709,10 @@
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
@@ -3642,10 +3728,10 @@
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F85" s="27"/>
       <c r="G85" s="27"/>
@@ -3661,10 +3747,10 @@
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F86" s="27"/>
       <c r="G86" s="27"/>
@@ -3680,10 +3766,10 @@
       </c>
       <c r="C87" s="24"/>
       <c r="D87" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
@@ -3699,10 +3785,10 @@
       </c>
       <c r="C88" s="24"/>
       <c r="D88" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
@@ -3718,10 +3804,10 @@
       </c>
       <c r="C89" s="24"/>
       <c r="D89" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F89" s="27"/>
       <c r="G89" s="27"/>
@@ -3737,10 +3823,10 @@
       </c>
       <c r="C90" s="24"/>
       <c r="D90" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F90" s="27"/>
       <c r="G90" s="27"/>
@@ -3756,10 +3842,10 @@
       </c>
       <c r="C91" s="24"/>
       <c r="D91" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F91" s="27"/>
       <c r="G91" s="27"/>
@@ -3775,10 +3861,10 @@
       </c>
       <c r="C92" s="24"/>
       <c r="D92" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F92" s="27"/>
       <c r="G92" s="27"/>
@@ -3794,10 +3880,10 @@
       </c>
       <c r="C93" s="24"/>
       <c r="D93" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F93" s="27"/>
       <c r="G93" s="27"/>
@@ -3813,10 +3899,10 @@
       </c>
       <c r="C94" s="24"/>
       <c r="D94" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F94" s="27"/>
       <c r="G94" s="27"/>
@@ -3832,10 +3918,10 @@
       </c>
       <c r="C95" s="24"/>
       <c r="D95" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
@@ -3851,10 +3937,10 @@
       </c>
       <c r="C96" s="24"/>
       <c r="D96" s="30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
@@ -3869,11 +3955,11 @@
         <v>94</v>
       </c>
       <c r="C97" s="24"/>
-      <c r="D97" s="33" t="s">
-        <v>93</v>
+      <c r="D97" s="34" t="s">
+        <v>95</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
@@ -3888,11 +3974,11 @@
         <v>95</v>
       </c>
       <c r="C98" s="24"/>
-      <c r="D98" s="33" t="s">
-        <v>95</v>
+      <c r="D98" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F98" s="27"/>
       <c r="G98" s="27"/>
@@ -3930,10 +4016,10 @@
         <v>24</v>
       </c>
       <c r="D100" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E100" s="26" t="s">
         <v>115</v>
-      </c>
-      <c r="E100" s="26" t="s">
-        <v>113</v>
       </c>
       <c r="F100" s="27"/>
       <c r="G100" s="27"/>
@@ -3949,10 +4035,10 @@
       </c>
       <c r="C101" s="24"/>
       <c r="D101" s="30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F101" s="27"/>
       <c r="G101" s="27"/>
@@ -3967,11 +4053,11 @@
         <v>99</v>
       </c>
       <c r="C102" s="24"/>
-      <c r="D102" s="33" t="s">
-        <v>93</v>
+      <c r="D102" s="34" t="s">
+        <v>95</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F102" s="27"/>
       <c r="G102" s="27"/>
@@ -3986,11 +4072,11 @@
         <v>100</v>
       </c>
       <c r="C103" s="24"/>
-      <c r="D103" s="33" t="s">
-        <v>95</v>
+      <c r="D103" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F103" s="27"/>
       <c r="G103" s="27"/>
@@ -4025,13 +4111,13 @@
         <v>102</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
@@ -4047,10 +4133,10 @@
       </c>
       <c r="C106" s="24"/>
       <c r="D106" s="26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F106" s="27"/>
       <c r="G106" s="27"/>
@@ -4066,10 +4152,10 @@
       </c>
       <c r="C107" s="24"/>
       <c r="D107" s="26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
@@ -4085,10 +4171,10 @@
       </c>
       <c r="C108" s="24"/>
       <c r="D108" s="26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
@@ -4104,10 +4190,10 @@
       </c>
       <c r="C109" s="24"/>
       <c r="D109" s="26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F109" s="27"/>
       <c r="G109" s="27"/>

--- a/RT1_Oracle_開発演習_テスト仕様書_team_1.0.0.xlsx
+++ b/RT1_Oracle_開発演習_テスト仕様書_team_1.0.0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="125">
   <si>
     <t xml:space="preserve">関係者外秘</t>
   </si>
@@ -714,6 +714,11 @@
 入力内容：XXXX</t>
   </si>
   <si>
+    <t xml:space="preserve">1.下記のメッセージが表示される。
+対象者がいませんでした
+2.メニューが表示される。</t>
+  </si>
+  <si>
     <t xml:space="preserve">メニュー画面にて下記内容を入力
 入力内容：6</t>
   </si>
@@ -733,11 +738,6 @@
   <si>
     <t xml:space="preserve">メッセージ「削除する社員の社員IDを入力してください:」の後に、存在しない社員IDを入力する
 入力内容：100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.下記のメッセージが表示される。
-対象者がいませんでした
-2.メニューが表示される。</t>
   </si>
   <si>
     <t xml:space="preserve">社員情報の一覧画面にて、前項目の作業で入力した社員IDに該当する社員情報が表示されていない</t>
@@ -1066,14 +1066,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="[$-411]yyyy/m/d"/>
     <numFmt numFmtId="168" formatCode="[$-411]yyyy/m/d\ h:mm"/>
     <numFmt numFmtId="169" formatCode="m\月d\日"/>
-    <numFmt numFmtId="170" formatCode="m\月d\日"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1288,7 +1287,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1414,10 +1413,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1616,7 +1611,7 @@
   </sheetPr>
   <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1691,7 +1686,7 @@
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1738,7 +1733,7 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1747,7 +1742,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="26.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
@@ -1761,7 +1756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
@@ -1771,7 +1766,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1781,7 +1776,7 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1791,7 +1786,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1801,7 +1796,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1811,7 +1806,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1821,7 +1816,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1831,7 +1826,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1841,7 +1836,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
@@ -1851,7 +1846,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1861,7 +1856,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
@@ -1871,7 +1866,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
@@ -1881,7 +1876,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -1891,7 +1886,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
@@ -1925,10 +1920,10 @@
   </sheetPr>
   <dimension ref="B1:M110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.43359375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1943,7 +1938,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="14" style="12" width="15.43"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="14" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="15" t="s">
         <v>26</v>
       </c>
@@ -1975,7 +1970,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="21" t="s">
         <v>30</v>
       </c>
@@ -2035,7 +2030,7 @@
       <c r="K4" s="27"/>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" customFormat="false" ht="31.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>2</v>
@@ -2061,7 +2056,7 @@
       <c r="K5" s="27"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>3</v>
@@ -2120,7 +2115,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
     </row>
-    <row r="8" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>5</v>
@@ -2173,7 +2168,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
     </row>
-    <row r="10" customFormat="false" ht="211.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="212" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>7</v>
@@ -2198,7 +2193,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
     </row>
-    <row r="11" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>8</v>
@@ -2223,7 +2218,7 @@
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>9</v>
@@ -2248,7 +2243,7 @@
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
     </row>
-    <row r="13" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>10</v>
@@ -2288,14 +2283,20 @@
       <c r="E14" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
+      <c r="F14" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="28" t="n">
+        <v>45888</v>
+      </c>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" customFormat="false" ht="212" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="211.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>12</v>
@@ -2307,14 +2308,20 @@
       <c r="E15" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="F15" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="28" t="n">
+        <v>45888</v>
+      </c>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
     </row>
-    <row r="16" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>13</v>
@@ -2326,14 +2333,20 @@
       <c r="E16" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
+      <c r="F16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="28" t="n">
+        <v>45888</v>
+      </c>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
     </row>
-    <row r="17" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>14</v>
@@ -2345,9 +2358,15 @@
       <c r="E17" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
+      <c r="F17" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="28" t="n">
+        <v>45888</v>
+      </c>
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -2373,14 +2392,14 @@
       <c r="G18" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="32" t="n">
+      <c r="H18" s="31" t="n">
         <v>45888</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
     </row>
-    <row r="19" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>16</v>
@@ -2398,14 +2417,14 @@
       <c r="G19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="32" t="n">
+      <c r="H19" s="31" t="n">
         <v>45888</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
     </row>
-    <row r="20" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>17</v>
@@ -2423,14 +2442,14 @@
       <c r="G20" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="32" t="n">
+      <c r="H20" s="31" t="n">
         <v>45888</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
     </row>
-    <row r="21" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>18</v>
@@ -2448,14 +2467,14 @@
       <c r="G21" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="32" t="n">
+      <c r="H21" s="31" t="n">
         <v>45888</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>19</v>
@@ -2473,14 +2492,14 @@
       <c r="G22" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="32" t="n">
+      <c r="H22" s="31" t="n">
         <v>45888</v>
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
     </row>
-    <row r="23" customFormat="false" ht="91.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>20</v>
@@ -2498,14 +2517,14 @@
       <c r="G23" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="32" t="n">
+      <c r="H23" s="31" t="n">
         <v>45888</v>
       </c>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>21</v>
@@ -2523,7 +2542,7 @@
       <c r="G24" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="32" t="n">
+      <c r="H24" s="31" t="n">
         <v>45888</v>
       </c>
       <c r="I24" s="27"/>
@@ -2545,14 +2564,20 @@
       <c r="E25" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="F25" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="28" t="n">
+        <v>45888</v>
+      </c>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
     </row>
-    <row r="26" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>23</v>
@@ -2564,14 +2589,20 @@
       <c r="E26" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="F26" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="28" t="n">
+        <v>45888</v>
+      </c>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
     </row>
-    <row r="27" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="45.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>24</v>
@@ -2583,14 +2614,20 @@
       <c r="E27" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
+      <c r="F27" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="28" t="n">
+        <v>45888</v>
+      </c>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
     </row>
-    <row r="28" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="45.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>25</v>
@@ -2602,14 +2639,20 @@
       <c r="E28" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="F28" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="28" t="n">
+        <v>45888</v>
+      </c>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
     </row>
-    <row r="29" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="45.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>26</v>
@@ -2621,14 +2664,20 @@
       <c r="E29" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="F29" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="28" t="n">
+        <v>45888</v>
+      </c>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
       <c r="K29" s="27"/>
     </row>
-    <row r="30" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>27</v>
@@ -2640,14 +2689,20 @@
       <c r="E30" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="F30" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28" t="n">
+        <v>45888</v>
+      </c>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
     </row>
-    <row r="31" customFormat="false" ht="91.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="91.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>28</v>
@@ -2659,14 +2714,20 @@
       <c r="E31" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="F31" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28" t="n">
+        <v>45888</v>
+      </c>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
     </row>
-    <row r="32" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>29</v>
@@ -2676,16 +2737,22 @@
         <v>84</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+        <v>85</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28" t="n">
+        <v>45888</v>
+      </c>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
     </row>
-    <row r="33" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="45.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>30</v>
@@ -2697,9 +2764,15 @@
       <c r="E33" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
+      <c r="F33" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28" t="n">
+        <v>45888</v>
+      </c>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
@@ -2714,10 +2787,10 @@
         <v>18</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F34" s="27" t="s">
         <v>42</v>
@@ -2725,24 +2798,24 @@
       <c r="G34" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="32" t="n">
+      <c r="H34" s="31" t="n">
         <v>45888</v>
       </c>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
     </row>
-    <row r="35" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>32</v>
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F35" s="27" t="s">
         <v>42</v>
@@ -2750,24 +2823,24 @@
       <c r="G35" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="32" t="n">
+      <c r="H35" s="31" t="n">
         <v>45888</v>
       </c>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
     </row>
-    <row r="36" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>33</v>
       </c>
       <c r="C36" s="24"/>
       <c r="D36" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="33" t="s">
         <v>90</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>85</v>
       </c>
       <c r="F36" s="27" t="s">
         <v>42</v>
@@ -2775,14 +2848,14 @@
       <c r="G36" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="32" t="n">
+      <c r="H36" s="31" t="n">
         <v>45888</v>
       </c>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
     </row>
-    <row r="37" customFormat="false" ht="31.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>34</v>
@@ -2800,14 +2873,14 @@
       <c r="G37" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="32" t="n">
+      <c r="H37" s="31" t="n">
         <v>45888</v>
       </c>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
     </row>
-    <row r="38" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>35</v>
@@ -2825,7 +2898,7 @@
       <c r="G38" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="32" t="n">
+      <c r="H38" s="31" t="n">
         <v>45888</v>
       </c>
       <c r="I38" s="27"/>
@@ -2930,7 +3003,7 @@
       <c r="J43" s="27"/>
       <c r="K43" s="27"/>
     </row>
-    <row r="44" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>41</v>
@@ -3009,7 +3082,7 @@
       <c r="J47" s="27"/>
       <c r="K47" s="27"/>
     </row>
-    <row r="48" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>45</v>
@@ -3145,7 +3218,7 @@
       <c r="J54" s="27"/>
       <c r="K54" s="27"/>
     </row>
-    <row r="55" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>52</v>
@@ -3528,7 +3601,7 @@
       <c r="J74" s="27"/>
       <c r="K74" s="27"/>
     </row>
-    <row r="75" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>72</v>
@@ -3955,7 +4028,7 @@
         <v>94</v>
       </c>
       <c r="C97" s="24"/>
-      <c r="D97" s="34" t="s">
+      <c r="D97" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E97" s="26" t="s">
@@ -3974,7 +4047,7 @@
         <v>95</v>
       </c>
       <c r="C98" s="24"/>
-      <c r="D98" s="34" t="s">
+      <c r="D98" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E98" s="26" t="s">
@@ -3987,7 +4060,7 @@
       <c r="J98" s="27"/>
       <c r="K98" s="27"/>
     </row>
-    <row r="99" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>96</v>
@@ -4053,7 +4126,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="24"/>
-      <c r="D102" s="34" t="s">
+      <c r="D102" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E102" s="26" t="s">
@@ -4072,7 +4145,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="24"/>
-      <c r="D103" s="34" t="s">
+      <c r="D103" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="26" t="s">
@@ -4085,7 +4158,7 @@
       <c r="J103" s="27"/>
       <c r="K103" s="27"/>
     </row>
-    <row r="104" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>101</v>
@@ -4126,7 +4199,7 @@
       <c r="J105" s="27"/>
       <c r="K105" s="27"/>
     </row>
-    <row r="106" customFormat="false" ht="106.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>103</v>
@@ -4145,7 +4218,7 @@
       <c r="J106" s="27"/>
       <c r="K106" s="27"/>
     </row>
-    <row r="107" customFormat="false" ht="106.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>104</v>
@@ -4164,7 +4237,7 @@
       <c r="J107" s="27"/>
       <c r="K107" s="27"/>
     </row>
-    <row r="108" customFormat="false" ht="106.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>105</v>
@@ -4183,7 +4256,7 @@
       <c r="J108" s="27"/>
       <c r="K108" s="27"/>
     </row>
-    <row r="109" customFormat="false" ht="106.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>106</v>
@@ -4202,7 +4275,7 @@
       <c r="J109" s="27"/>
       <c r="K109" s="27"/>
     </row>
-    <row r="110" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>107</v>

--- a/RT1_Oracle_開発演習_テスト仕様書_team_1.0.0.xlsx
+++ b/RT1_Oracle_開発演習_テスト仕様書_team_1.0.0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="126">
   <si>
     <t xml:space="preserve">関係者外秘</t>
   </si>
@@ -767,7 +767,7 @@
   <si>
     <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
 メッセージ「社員名を入力してください：」の後に下記内容を入力
-入力内容：XXXX</t>
+入力内容：あいうえおかきくけこあいうえおかきくけこあいうえおかきくけこあ</t>
   </si>
   <si>
     <t xml:space="preserve">下記のエラーメッセージが表示される。
@@ -791,12 +791,12 @@
   <si>
     <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
 メッセージ「社員名：」の後に下記内容を入力
-入力内容：XXXX</t>
+入力内容：あいうえおかきくけこあいうえおかきくけこあいうえおかきくけこあ</t>
   </si>
   <si>
     <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
 メッセージ「性別(1： 男性, 2： 女性)：」の後に下記内容を入力
-入力内容：XXXX</t>
+入力内容：4</t>
   </si>
   <si>
     <t xml:space="preserve">下記のエラーメッセージが表示される。
@@ -844,6 +844,11 @@
   <si>
     <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
 メッセージ「社員名：」の後に下記内容（31文字以上）を入力
+入力内容：XXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
+メッセージ「性別(1： 男性, 2： 女性)：」の後に下記内容を入力
 入力内容：XXXX</t>
   </si>
   <si>
@@ -1066,13 +1071,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="[$-411]yyyy/m/d"/>
     <numFmt numFmtId="168" formatCode="[$-411]yyyy/m/d\ h:mm"/>
     <numFmt numFmtId="169" formatCode="m\月d\日"/>
+    <numFmt numFmtId="170" formatCode="m\月d\日"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1287,7 +1293,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1418,6 +1424,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1742,7 +1752,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="26.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
@@ -1756,7 +1766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
@@ -1766,7 +1776,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1776,7 +1786,7 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1786,7 +1796,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1796,7 +1806,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1806,7 +1816,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1816,7 +1826,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1826,7 +1836,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1836,7 +1846,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
@@ -1846,7 +1856,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1856,7 +1866,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
@@ -1866,7 +1876,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
@@ -1876,7 +1886,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -1886,7 +1896,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
@@ -1920,10 +1930,10 @@
   </sheetPr>
   <dimension ref="B1:M110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F56" activeCellId="0" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.43359375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1938,7 +1948,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="14" style="12" width="15.43"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="14" customFormat="true" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="15" t="s">
         <v>26</v>
       </c>
@@ -1970,7 +1980,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="21" t="s">
         <v>30</v>
       </c>
@@ -2030,7 +2040,7 @@
       <c r="K4" s="27"/>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>2</v>
@@ -2056,7 +2066,7 @@
       <c r="K5" s="27"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>3</v>
@@ -2115,7 +2125,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
     </row>
-    <row r="8" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>5</v>
@@ -2193,7 +2203,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
     </row>
-    <row r="11" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>8</v>
@@ -2218,7 +2228,7 @@
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>9</v>
@@ -2243,7 +2253,7 @@
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
     </row>
-    <row r="13" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>10</v>
@@ -2321,7 +2331,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
     </row>
-    <row r="16" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>13</v>
@@ -2346,7 +2356,7 @@
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
     </row>
-    <row r="17" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>14</v>
@@ -2399,7 +2409,7 @@
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
     </row>
-    <row r="19" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>16</v>
@@ -2424,7 +2434,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
     </row>
-    <row r="20" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>17</v>
@@ -2449,7 +2459,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
     </row>
-    <row r="21" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>18</v>
@@ -2474,7 +2484,7 @@
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>19</v>
@@ -2499,7 +2509,7 @@
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
     </row>
-    <row r="23" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="91.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>20</v>
@@ -2524,7 +2534,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>21</v>
@@ -2805,7 +2815,7 @@
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
     </row>
-    <row r="35" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>32</v>
@@ -2830,7 +2840,7 @@
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
     </row>
-    <row r="36" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>33</v>
@@ -2855,7 +2865,7 @@
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
     </row>
-    <row r="37" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>34</v>
@@ -2880,7 +2890,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
     </row>
-    <row r="38" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>35</v>
@@ -3003,7 +3013,7 @@
       <c r="J43" s="27"/>
       <c r="K43" s="27"/>
     </row>
-    <row r="44" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>41</v>
@@ -3037,9 +3047,15 @@
       <c r="E45" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
+      <c r="F45" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="33" t="n">
+        <v>45888</v>
+      </c>
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
       <c r="K45" s="27"/>
@@ -3056,9 +3072,15 @@
       <c r="E46" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
+      <c r="F46" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="33" t="n">
+        <v>45888</v>
+      </c>
       <c r="I46" s="27"/>
       <c r="J46" s="27"/>
       <c r="K46" s="27"/>
@@ -3075,14 +3097,20 @@
       <c r="E47" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
+      <c r="F47" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="33" t="n">
+        <v>45888</v>
+      </c>
       <c r="I47" s="27"/>
       <c r="J47" s="27"/>
       <c r="K47" s="27"/>
     </row>
-    <row r="48" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>45</v>
@@ -3094,9 +3122,15 @@
       <c r="E48" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
+      <c r="F48" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="33" t="n">
+        <v>45888</v>
+      </c>
       <c r="I48" s="27"/>
       <c r="J48" s="27"/>
       <c r="K48" s="27"/>
@@ -3218,7 +3252,7 @@
       <c r="J54" s="27"/>
       <c r="K54" s="27"/>
     </row>
-    <row r="55" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>52</v>
@@ -3252,8 +3286,12 @@
       <c r="E56" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
+      <c r="F56" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
       <c r="J56" s="27"/>
@@ -3271,8 +3309,12 @@
       <c r="E57" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
+      <c r="F57" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
       <c r="J57" s="27"/>
@@ -3291,7 +3333,9 @@
         <v>106</v>
       </c>
       <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
+      <c r="G58" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
       <c r="J58" s="27"/>
@@ -3310,7 +3354,9 @@
         <v>106</v>
       </c>
       <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
+      <c r="G59" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>
@@ -3329,7 +3375,9 @@
         <v>106</v>
       </c>
       <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
+      <c r="G60" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
       <c r="J60" s="27"/>
@@ -3348,7 +3396,9 @@
         <v>106</v>
       </c>
       <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
+      <c r="G61" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
       <c r="J61" s="27"/>
@@ -3367,7 +3417,9 @@
         <v>108</v>
       </c>
       <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
+      <c r="G62" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
       <c r="J62" s="27"/>
@@ -3386,7 +3438,9 @@
         <v>108</v>
       </c>
       <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
+      <c r="G63" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
       <c r="J63" s="27"/>
@@ -3405,7 +3459,9 @@
         <v>108</v>
       </c>
       <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
+      <c r="G64" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
       <c r="J64" s="27"/>
@@ -3424,7 +3480,9 @@
         <v>108</v>
       </c>
       <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
+      <c r="G65" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
       <c r="J65" s="27"/>
@@ -3443,7 +3501,9 @@
         <v>108</v>
       </c>
       <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
+      <c r="G66" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
       <c r="J66" s="27"/>
@@ -3462,7 +3522,9 @@
         <v>108</v>
       </c>
       <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
+      <c r="G67" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
       <c r="J67" s="27"/>
@@ -3481,7 +3543,9 @@
         <v>108</v>
       </c>
       <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
+      <c r="G68" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
       <c r="J68" s="27"/>
@@ -3500,7 +3564,9 @@
         <v>108</v>
       </c>
       <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
+      <c r="G69" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
       <c r="J69" s="27"/>
@@ -3519,7 +3585,9 @@
         <v>108</v>
       </c>
       <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
+      <c r="G70" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
       <c r="J70" s="27"/>
@@ -3538,7 +3606,9 @@
         <v>101</v>
       </c>
       <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
+      <c r="G71" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
       <c r="J71" s="27"/>
@@ -3557,7 +3627,9 @@
         <v>101</v>
       </c>
       <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
+      <c r="G72" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
       <c r="J72" s="27"/>
@@ -3576,7 +3648,9 @@
         <v>101</v>
       </c>
       <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
+      <c r="G73" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
       <c r="J73" s="27"/>
@@ -3595,13 +3669,15 @@
         <v>101</v>
       </c>
       <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
+      <c r="G74" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
       <c r="J74" s="27"/>
       <c r="K74" s="27"/>
     </row>
-    <row r="75" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>72</v>
@@ -3614,7 +3690,9 @@
         <v>46</v>
       </c>
       <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
+      <c r="G75" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H75" s="28"/>
       <c r="I75" s="27"/>
       <c r="J75" s="27"/>
@@ -3744,7 +3822,7 @@
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="26" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E82" s="26" t="s">
         <v>106</v>
@@ -4028,7 +4106,7 @@
         <v>94</v>
       </c>
       <c r="C97" s="24"/>
-      <c r="D97" s="33" t="s">
+      <c r="D97" s="34" t="s">
         <v>95</v>
       </c>
       <c r="E97" s="26" t="s">
@@ -4047,7 +4125,7 @@
         <v>95</v>
       </c>
       <c r="C98" s="24"/>
-      <c r="D98" s="33" t="s">
+      <c r="D98" s="34" t="s">
         <v>97</v>
       </c>
       <c r="E98" s="26" t="s">
@@ -4060,7 +4138,7 @@
       <c r="J98" s="27"/>
       <c r="K98" s="27"/>
     </row>
-    <row r="99" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>96</v>
@@ -4089,13 +4167,15 @@
         <v>24</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E100" s="26" t="s">
         <v>115</v>
       </c>
       <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
+      <c r="G100" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
       <c r="J100" s="27"/>
@@ -4114,7 +4194,9 @@
         <v>115</v>
       </c>
       <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
+      <c r="G101" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
       <c r="J101" s="27"/>
@@ -4126,14 +4208,16 @@
         <v>99</v>
       </c>
       <c r="C102" s="24"/>
-      <c r="D102" s="33" t="s">
+      <c r="D102" s="34" t="s">
         <v>95</v>
       </c>
       <c r="E102" s="26" t="s">
         <v>115</v>
       </c>
       <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
+      <c r="G102" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
       <c r="J102" s="27"/>
@@ -4145,20 +4229,22 @@
         <v>100</v>
       </c>
       <c r="C103" s="24"/>
-      <c r="D103" s="33" t="s">
+      <c r="D103" s="34" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="26" t="s">
         <v>115</v>
       </c>
       <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
+      <c r="G103" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
       <c r="J103" s="27"/>
       <c r="K103" s="27"/>
     </row>
-    <row r="104" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>101</v>
@@ -4171,7 +4257,9 @@
         <v>46</v>
       </c>
       <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
+      <c r="G104" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H104" s="28"/>
       <c r="I104" s="27"/>
       <c r="J104" s="27"/>
@@ -4184,13 +4272,13 @@
         <v>102</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
@@ -4199,17 +4287,17 @@
       <c r="J105" s="27"/>
       <c r="K105" s="27"/>
     </row>
-    <row r="106" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="106.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>103</v>
       </c>
       <c r="C106" s="24"/>
       <c r="D106" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F106" s="27"/>
       <c r="G106" s="27"/>
@@ -4218,17 +4306,17 @@
       <c r="J106" s="27"/>
       <c r="K106" s="27"/>
     </row>
-    <row r="107" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="106.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>104</v>
       </c>
       <c r="C107" s="24"/>
       <c r="D107" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
@@ -4237,17 +4325,17 @@
       <c r="J107" s="27"/>
       <c r="K107" s="27"/>
     </row>
-    <row r="108" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="106.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>105</v>
       </c>
       <c r="C108" s="24"/>
       <c r="D108" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
@@ -4256,17 +4344,17 @@
       <c r="J108" s="27"/>
       <c r="K108" s="27"/>
     </row>
-    <row r="109" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="106.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>106</v>
       </c>
       <c r="C109" s="24"/>
       <c r="D109" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F109" s="27"/>
       <c r="G109" s="27"/>
@@ -4275,7 +4363,7 @@
       <c r="J109" s="27"/>
       <c r="K109" s="27"/>
     </row>
-    <row r="110" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>107</v>

--- a/RT1_Oracle_開発演習_テスト仕様書_team_1.0.0.xlsx
+++ b/RT1_Oracle_開発演習_テスト仕様書_team_1.0.0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="132">
   <si>
     <t xml:space="preserve">関係者外秘</t>
   </si>
@@ -800,7 +800,7 @@
   </si>
   <si>
     <t xml:space="preserve">下記のエラーメッセージが表示される。
-エラーメッセージ内容：1以上2以下の整数を入力してください：</t>
+エラーメッセージ内容：0,1,2,9の整数を入力してください</t>
   </si>
   <si>
     <t xml:space="preserve">メッセージ「生年月日(西暦年/月/日)：」の後に下記内容を入力
@@ -817,6 +817,59 @@
   <si>
     <t xml:space="preserve">メッセージ「生年月日(西暦年/月/日)：」の後に下記内容を入力
 入力内容：2000年12月12日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※無効となる形式を考えること
+メッセージ「生年月日(西暦年/月/日)：」の後に下記内容を入力
+入力内容：２０００／１２／１２</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※無効となる形式を考えること
+メッセージ「生年月日(西暦年/月/日)：」の後に下記内容を入力
+入力内容：20001212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※無効となる形式を考えること
+メッセージ「生年月日(西暦年/月/日)：」の後に下記内容を入力
+入力内容：２０００１２１２</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※無効となる形式を考えること
+メッセージ「生年月日(西暦年/月/日)：」の後に下記内容を入力
+入力内容：2000/15/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※無効となる形式を考えること
+メッセージ「生年月日(西暦年/月/日)：」の後に下記内容を入力
+入力内容：2000/12/32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※未入力チェックを行う
+メッセージ「生年月日(西暦年/月/日)：」の後に何も入力せずに、Enterキーを押下</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
+メッセージ「部署ID(1：営業部、2：経理部、3：総務部)： 」の後に下記内容を入力
+入力内容：4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
+メッセージ「更新する社員の社員IDを入力してください： 」の後に下記内容を入力
+入力内容：XXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下記のエラーメッセージが表示される。
+エラーメッセージ内容：1以上9999以下の整数を入力してください：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
+メッセージ「社員名：」の後に下記内容（31文字以上）を入力
+入力内容：XXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
+メッセージ「性別(1： 男性, 2： 女性)：」の後に下記内容を入力
+入力内容：XXXX</t>
   </si>
   <si>
     <t xml:space="preserve">※無効となる形式を考えること
@@ -824,31 +877,8 @@
 入力内容：XXXX</t>
   </si>
   <si>
-    <t xml:space="preserve">※未入力チェックを行う
-メッセージ「生年月日(西暦年/月/日)：」の後に何も入力せずに、Enterキーを押下</t>
-  </si>
-  <si>
     <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
 メッセージ「部署ID(1：営業部、2：経理部、3：総務部)： 」の後に下記内容を入力
-入力内容：XXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
-メッセージ「更新する社員の社員IDを入力してください： 」の後に下記内容を入力
-入力内容：XXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下記のエラーメッセージが表示される。
-エラーメッセージ内容：1以上9999以下の整数を入力してください：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
-メッセージ「社員名：」の後に下記内容（31文字以上）を入力
-入力内容：XXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
-メッセージ「性別(1： 男性, 2： 女性)：」の後に下記内容を入力
 入力内容：XXXX</t>
   </si>
   <si>
@@ -1931,9 +1961,9 @@
   <dimension ref="B1:M110"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F56" activeCellId="0" sqref="F56"/>
+      <selection pane="bottomLeft" activeCell="K61" activeCellId="0" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.43359375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3053,7 +3083,7 @@
       <c r="G45" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H45" s="33" t="n">
+      <c r="H45" s="31" t="n">
         <v>45888</v>
       </c>
       <c r="I45" s="27"/>
@@ -3078,7 +3108,7 @@
       <c r="G46" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="33" t="n">
+      <c r="H46" s="31" t="n">
         <v>45888</v>
       </c>
       <c r="I46" s="27"/>
@@ -3103,7 +3133,7 @@
       <c r="G47" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H47" s="33" t="n">
+      <c r="H47" s="31" t="n">
         <v>45888</v>
       </c>
       <c r="I47" s="27"/>
@@ -3128,7 +3158,7 @@
       <c r="G48" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H48" s="33" t="n">
+      <c r="H48" s="31" t="n">
         <v>45888</v>
       </c>
       <c r="I48" s="27"/>
@@ -3292,7 +3322,9 @@
       <c r="G56" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="27"/>
+      <c r="H56" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I56" s="27"/>
       <c r="J56" s="27"/>
       <c r="K56" s="27"/>
@@ -3315,7 +3347,9 @@
       <c r="G57" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H57" s="27"/>
+      <c r="H57" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I57" s="27"/>
       <c r="J57" s="27"/>
       <c r="K57" s="27"/>
@@ -3332,11 +3366,15 @@
       <c r="E58" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F58" s="27"/>
+      <c r="F58" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G58" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H58" s="27"/>
+      <c r="H58" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I58" s="27"/>
       <c r="J58" s="27"/>
       <c r="K58" s="27"/>
@@ -3353,11 +3391,15 @@
       <c r="E59" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F59" s="27"/>
+      <c r="F59" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G59" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="27"/>
+      <c r="H59" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>
       <c r="K59" s="27"/>
@@ -3374,11 +3416,15 @@
       <c r="E60" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F60" s="27"/>
+      <c r="F60" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G60" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H60" s="27"/>
+      <c r="H60" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I60" s="27"/>
       <c r="J60" s="27"/>
       <c r="K60" s="27"/>
@@ -3395,14 +3441,24 @@
       <c r="E61" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F61" s="27"/>
+      <c r="F61" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="G61" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
+      <c r="H61" s="33" t="n">
+        <v>45889</v>
+      </c>
+      <c r="I61" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K61" s="33" t="n">
+        <v>45889</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="83.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="23" t="n">
@@ -3416,11 +3472,15 @@
       <c r="E62" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F62" s="27"/>
+      <c r="F62" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G62" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H62" s="27"/>
+      <c r="H62" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I62" s="27"/>
       <c r="J62" s="27"/>
       <c r="K62" s="27"/>
@@ -3437,11 +3497,15 @@
       <c r="E63" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F63" s="27"/>
+      <c r="F63" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G63" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H63" s="27"/>
+      <c r="H63" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I63" s="27"/>
       <c r="J63" s="27"/>
       <c r="K63" s="27"/>
@@ -3458,11 +3522,15 @@
       <c r="E64" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F64" s="27"/>
+      <c r="F64" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G64" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H64" s="27"/>
+      <c r="H64" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I64" s="27"/>
       <c r="J64" s="27"/>
       <c r="K64" s="27"/>
@@ -3479,11 +3547,15 @@
       <c r="E65" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F65" s="27"/>
+      <c r="F65" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G65" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H65" s="27"/>
+      <c r="H65" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I65" s="27"/>
       <c r="J65" s="27"/>
       <c r="K65" s="27"/>
@@ -3495,16 +3567,20 @@
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E66" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F66" s="27"/>
+      <c r="F66" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G66" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H66" s="27"/>
+      <c r="H66" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I66" s="27"/>
       <c r="J66" s="27"/>
       <c r="K66" s="27"/>
@@ -3516,16 +3592,20 @@
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E67" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F67" s="27"/>
+      <c r="F67" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G67" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H67" s="27"/>
+      <c r="H67" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I67" s="27"/>
       <c r="J67" s="27"/>
       <c r="K67" s="27"/>
@@ -3537,16 +3617,20 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="26" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E68" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F68" s="27"/>
+      <c r="F68" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G68" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H68" s="27"/>
+      <c r="H68" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I68" s="27"/>
       <c r="J68" s="27"/>
       <c r="K68" s="27"/>
@@ -3558,16 +3642,20 @@
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="26" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E69" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F69" s="27"/>
+      <c r="F69" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G69" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H69" s="27"/>
+      <c r="H69" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I69" s="27"/>
       <c r="J69" s="27"/>
       <c r="K69" s="27"/>
@@ -3579,16 +3667,20 @@
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="26" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E70" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F70" s="27"/>
+      <c r="F70" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G70" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H70" s="27"/>
+      <c r="H70" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I70" s="27"/>
       <c r="J70" s="27"/>
       <c r="K70" s="27"/>
@@ -3600,16 +3692,20 @@
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="26" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E71" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F71" s="27"/>
+      <c r="F71" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G71" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H71" s="27"/>
+      <c r="H71" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I71" s="27"/>
       <c r="J71" s="27"/>
       <c r="K71" s="27"/>
@@ -3626,11 +3722,15 @@
       <c r="E72" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F72" s="27"/>
+      <c r="F72" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G72" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H72" s="27"/>
+      <c r="H72" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I72" s="27"/>
       <c r="J72" s="27"/>
       <c r="K72" s="27"/>
@@ -3647,11 +3747,15 @@
       <c r="E73" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="27"/>
+      <c r="F73" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G73" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H73" s="27"/>
+      <c r="H73" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I73" s="27"/>
       <c r="J73" s="27"/>
       <c r="K73" s="27"/>
@@ -3668,11 +3772,15 @@
       <c r="E74" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F74" s="27"/>
+      <c r="F74" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G74" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H74" s="27"/>
+      <c r="H74" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I74" s="27"/>
       <c r="J74" s="27"/>
       <c r="K74" s="27"/>
@@ -3689,11 +3797,15 @@
       <c r="E75" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F75" s="27"/>
+      <c r="F75" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G75" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H75" s="28"/>
+      <c r="H75" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I75" s="27"/>
       <c r="J75" s="27"/>
       <c r="K75" s="27"/>
@@ -3708,10 +3820,10 @@
         <v>23</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F76" s="27"/>
       <c r="G76" s="27"/>
@@ -3730,7 +3842,7 @@
         <v>102</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
@@ -3749,7 +3861,7 @@
         <v>95</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
@@ -3768,7 +3880,7 @@
         <v>97</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
@@ -3784,7 +3896,7 @@
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="26" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E80" s="26" t="s">
         <v>99</v>
@@ -3822,7 +3934,7 @@
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="26" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E82" s="26" t="s">
         <v>106</v>
@@ -3898,7 +4010,7 @@
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="26" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E86" s="26" t="s">
         <v>108</v>
@@ -3917,7 +4029,7 @@
       </c>
       <c r="C87" s="24"/>
       <c r="D87" s="26" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E87" s="26" t="s">
         <v>108</v>
@@ -3936,7 +4048,7 @@
       </c>
       <c r="C88" s="24"/>
       <c r="D88" s="26" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E88" s="26" t="s">
         <v>108</v>
@@ -3955,7 +4067,7 @@
       </c>
       <c r="C89" s="24"/>
       <c r="D89" s="26" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E89" s="26" t="s">
         <v>108</v>
@@ -3974,7 +4086,7 @@
       </c>
       <c r="C90" s="24"/>
       <c r="D90" s="26" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E90" s="26" t="s">
         <v>108</v>
@@ -3993,7 +4105,7 @@
       </c>
       <c r="C91" s="24"/>
       <c r="D91" s="26" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>108</v>
@@ -4012,7 +4124,7 @@
       </c>
       <c r="C92" s="24"/>
       <c r="D92" s="26" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E92" s="26" t="s">
         <v>108</v>
@@ -4031,7 +4143,7 @@
       </c>
       <c r="C93" s="24"/>
       <c r="D93" s="26" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E93" s="26" t="s">
         <v>108</v>
@@ -4050,7 +4162,7 @@
       </c>
       <c r="C94" s="24"/>
       <c r="D94" s="26" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E94" s="26" t="s">
         <v>108</v>
@@ -4069,7 +4181,7 @@
       </c>
       <c r="C95" s="24"/>
       <c r="D95" s="26" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E95" s="26" t="s">
         <v>101</v>
@@ -4167,12 +4279,14 @@
         <v>24</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F100" s="27"/>
+        <v>119</v>
+      </c>
+      <c r="F100" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G100" s="27" t="s">
         <v>6</v>
       </c>
@@ -4191,9 +4305,11 @@
         <v>95</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F101" s="27"/>
+        <v>119</v>
+      </c>
+      <c r="F101" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G101" s="27" t="s">
         <v>6</v>
       </c>
@@ -4212,9 +4328,11 @@
         <v>95</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F102" s="27"/>
+        <v>119</v>
+      </c>
+      <c r="F102" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G102" s="27" t="s">
         <v>6</v>
       </c>
@@ -4233,9 +4351,11 @@
         <v>97</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F103" s="27"/>
+        <v>119</v>
+      </c>
+      <c r="F103" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G103" s="27" t="s">
         <v>6</v>
       </c>
@@ -4256,7 +4376,9 @@
       <c r="E104" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F104" s="27"/>
+      <c r="F104" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G104" s="27" t="s">
         <v>6</v>
       </c>
@@ -4272,13 +4394,13 @@
         <v>102</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
@@ -4294,10 +4416,10 @@
       </c>
       <c r="C106" s="24"/>
       <c r="D106" s="26" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F106" s="27"/>
       <c r="G106" s="27"/>
@@ -4313,10 +4435,10 @@
       </c>
       <c r="C107" s="24"/>
       <c r="D107" s="26" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
@@ -4332,10 +4454,10 @@
       </c>
       <c r="C108" s="24"/>
       <c r="D108" s="26" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
@@ -4351,10 +4473,10 @@
       </c>
       <c r="C109" s="24"/>
       <c r="D109" s="26" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F109" s="27"/>
       <c r="G109" s="27"/>

--- a/RT1_Oracle_開発演習_テスト仕様書_team_1.0.0.xlsx
+++ b/RT1_Oracle_開発演習_テスト仕様書_team_1.0.0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="133">
   <si>
     <t xml:space="preserve">関係者外秘</t>
   </si>
@@ -745,7 +745,7 @@
   <si>
     <t xml:space="preserve">※境界値分析に基づいて入力値を決めること。
 メッセージ「メニュー番号を入力してください：」の後に下記内容を入力
-入力内容：XXXX</t>
+入力内容：0,8.a@.a@a@,1@,空文字、空白</t>
   </si>
   <si>
     <t xml:space="preserve">下記のエラーメッセージが表示される。
@@ -776,7 +776,7 @@
   <si>
     <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
 メッセージ「部署ID(1：営業部、2：経理部、3：総務部)を入力してください：」の後に下記内容を入力
-入力内容：XXXX</t>
+入力内容：0,4,aaa,1@,4@,a@a@,空文字,空白</t>
   </si>
   <si>
     <t xml:space="preserve">下記のエラーメッセージが表示される。
@@ -855,7 +855,7 @@
   <si>
     <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
 メッセージ「更新する社員の社員IDを入力してください： 」の後に下記内容を入力
-入力内容：XXXX</t>
+入力内容：0,10000,aaa,1@,9999@,a@a@,空文字,空白</t>
   </si>
   <si>
     <t xml:space="preserve">下記のエラーメッセージが表示される。
@@ -864,27 +864,32 @@
   <si>
     <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
 メッセージ「社員名：」の後に下記内容（31文字以上）を入力
-入力内容：XXXX</t>
+入力内容：あいうえおかきくけこあいうえおかきくけこあいうえおかきくけこあ</t>
   </si>
   <si>
     <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
 メッセージ「性別(1： 男性, 2： 女性)：」の後に下記内容を入力
-入力内容：XXXX</t>
+入力内容：3,8,10,1@,aaa,a@a@,空白,未入力</t>
   </si>
   <si>
     <t xml:space="preserve">※無効となる形式を考えること
 メッセージ「生年月日(西暦年/月/日)：」の後に下記内容を入力
-入力内容：XXXX</t>
+入力内容：001212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※無効となる形式を考えること
+メッセージ「生年月日(西暦年/月/日)：」の後に下記内容を入力
+入力内容：  29227899/11/03</t>
   </si>
   <si>
     <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
 メッセージ「部署ID(1：営業部、2：経理部、3：総務部)： 」の後に下記内容を入力
-入力内容：XXXX</t>
+入力内容：0000/11/11</t>
   </si>
   <si>
     <t xml:space="preserve">※境界値分析に基づいて入力値を決めること
 メッセージ「削除する社員の社員IDを入力してください：」の後に下記内容を入力
-入力内容：XXXX</t>
+入力内容：10000</t>
   </si>
   <si>
     <t xml:space="preserve">任意項目の更新</t>
@@ -1110,7 +1115,7 @@
     <numFmt numFmtId="169" formatCode="m\月d\日"/>
     <numFmt numFmtId="170" formatCode="m\月d\日"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1235,6 +1240,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1323,7 +1335,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1458,6 +1470,14 @@
     </xf>
     <xf numFmtId="170" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1782,7 +1802,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="26.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
@@ -1796,7 +1816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
@@ -1806,7 +1826,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1816,7 +1836,7 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1826,7 +1846,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1836,7 +1856,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1846,7 +1866,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1856,7 +1876,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1866,7 +1886,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1876,7 +1896,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
@@ -1886,7 +1906,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1896,7 +1916,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
@@ -1906,7 +1926,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
@@ -1916,7 +1936,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -1926,7 +1946,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
@@ -1961,9 +1981,9 @@
   <dimension ref="B1:M110"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K61" activeCellId="0" sqref="K61"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.43359375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1978,7 +1998,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="14" style="12" width="15.43"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="14" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="15" t="s">
         <v>26</v>
       </c>
@@ -2010,7 +2030,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="21" t="s">
         <v>30</v>
       </c>
@@ -2070,7 +2090,7 @@
       <c r="K4" s="27"/>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>2</v>
@@ -2096,7 +2116,7 @@
       <c r="K5" s="27"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>3</v>
@@ -2155,7 +2175,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
     </row>
-    <row r="8" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>5</v>
@@ -2233,7 +2253,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
     </row>
-    <row r="11" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>8</v>
@@ -2258,7 +2278,7 @@
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>9</v>
@@ -2283,7 +2303,7 @@
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
     </row>
-    <row r="13" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>10</v>
@@ -2336,7 +2356,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" customFormat="false" ht="211.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="212" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>12</v>
@@ -2361,7 +2381,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
     </row>
-    <row r="16" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>13</v>
@@ -2386,7 +2406,7 @@
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
     </row>
-    <row r="17" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>14</v>
@@ -2439,7 +2459,7 @@
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
     </row>
-    <row r="19" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>16</v>
@@ -2464,7 +2484,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
     </row>
-    <row r="20" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>17</v>
@@ -2489,7 +2509,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
     </row>
-    <row r="21" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>18</v>
@@ -2514,7 +2534,7 @@
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>19</v>
@@ -2539,7 +2559,7 @@
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
     </row>
-    <row r="23" customFormat="false" ht="91.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>20</v>
@@ -2564,7 +2584,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>21</v>
@@ -2617,7 +2637,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
     </row>
-    <row r="26" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>23</v>
@@ -2642,7 +2662,7 @@
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
     </row>
-    <row r="27" customFormat="false" ht="45.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>24</v>
@@ -2667,7 +2687,7 @@
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
     </row>
-    <row r="28" customFormat="false" ht="45.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>25</v>
@@ -2692,7 +2712,7 @@
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
     </row>
-    <row r="29" customFormat="false" ht="45.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>26</v>
@@ -2717,7 +2737,7 @@
       <c r="J29" s="27"/>
       <c r="K29" s="27"/>
     </row>
-    <row r="30" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>27</v>
@@ -2742,7 +2762,7 @@
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
     </row>
-    <row r="31" customFormat="false" ht="91.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>28</v>
@@ -2767,7 +2787,7 @@
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
     </row>
-    <row r="32" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>29</v>
@@ -2792,7 +2812,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
     </row>
-    <row r="33" customFormat="false" ht="45.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>30</v>
@@ -2845,7 +2865,7 @@
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
     </row>
-    <row r="35" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>32</v>
@@ -2870,7 +2890,7 @@
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
     </row>
-    <row r="36" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>33</v>
@@ -2895,7 +2915,7 @@
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
     </row>
-    <row r="37" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>34</v>
@@ -2920,7 +2940,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
     </row>
-    <row r="38" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>35</v>
@@ -2960,9 +2980,15 @@
       <c r="E39" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
+      <c r="F39" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>
@@ -2979,9 +3005,15 @@
       <c r="E40" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
+      <c r="F40" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I40" s="27"/>
       <c r="J40" s="27"/>
       <c r="K40" s="27"/>
@@ -2998,9 +3030,15 @@
       <c r="E41" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
+      <c r="F41" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I41" s="27"/>
       <c r="J41" s="27"/>
       <c r="K41" s="27"/>
@@ -3017,9 +3055,15 @@
       <c r="E42" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
+      <c r="F42" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I42" s="27"/>
       <c r="J42" s="27"/>
       <c r="K42" s="27"/>
@@ -3036,14 +3080,20 @@
       <c r="E43" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
+      <c r="F43" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I43" s="27"/>
       <c r="J43" s="27"/>
       <c r="K43" s="27"/>
     </row>
-    <row r="44" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>41</v>
@@ -3055,9 +3105,15 @@
       <c r="E44" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
+      <c r="F44" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I44" s="27"/>
       <c r="J44" s="27"/>
       <c r="K44" s="27"/>
@@ -3140,7 +3196,7 @@
       <c r="J47" s="27"/>
       <c r="K47" s="27"/>
     </row>
-    <row r="48" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>45</v>
@@ -3180,9 +3236,15 @@
       <c r="E49" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
+      <c r="F49" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I49" s="27"/>
       <c r="J49" s="27"/>
       <c r="K49" s="27"/>
@@ -3199,9 +3261,15 @@
       <c r="E50" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
+      <c r="F50" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
       <c r="K50" s="27"/>
@@ -3218,9 +3286,15 @@
       <c r="E51" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
+      <c r="F51" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
       <c r="K51" s="27"/>
@@ -3237,9 +3311,15 @@
       <c r="E52" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+      <c r="F52" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I52" s="27"/>
       <c r="J52" s="27"/>
       <c r="K52" s="27"/>
@@ -3256,9 +3336,15 @@
       <c r="E53" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
+      <c r="F53" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I53" s="27"/>
       <c r="J53" s="27"/>
       <c r="K53" s="27"/>
@@ -3275,14 +3361,20 @@
       <c r="E54" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
+      <c r="F54" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
       <c r="K54" s="27"/>
     </row>
-    <row r="55" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>52</v>
@@ -3294,9 +3386,15 @@
       <c r="E55" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28"/>
+      <c r="F55" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I55" s="27"/>
       <c r="J55" s="27"/>
       <c r="K55" s="27"/>
@@ -3322,7 +3420,7 @@
       <c r="G56" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="33" t="n">
+      <c r="H56" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I56" s="27"/>
@@ -3347,7 +3445,7 @@
       <c r="G57" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H57" s="33" t="n">
+      <c r="H57" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I57" s="27"/>
@@ -3372,7 +3470,7 @@
       <c r="G58" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H58" s="33" t="n">
+      <c r="H58" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I58" s="27"/>
@@ -3397,7 +3495,7 @@
       <c r="G59" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="33" t="n">
+      <c r="H59" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I59" s="27"/>
@@ -3422,7 +3520,7 @@
       <c r="G60" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H60" s="33" t="n">
+      <c r="H60" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I60" s="27"/>
@@ -3447,7 +3545,7 @@
       <c r="G61" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H61" s="33" t="n">
+      <c r="H61" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I61" s="27" t="s">
@@ -3456,7 +3554,7 @@
       <c r="J61" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K61" s="33" t="n">
+      <c r="K61" s="31" t="n">
         <v>45889</v>
       </c>
     </row>
@@ -3478,7 +3576,7 @@
       <c r="G62" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H62" s="33" t="n">
+      <c r="H62" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I62" s="27"/>
@@ -3503,7 +3601,7 @@
       <c r="G63" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H63" s="33" t="n">
+      <c r="H63" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I63" s="27"/>
@@ -3528,7 +3626,7 @@
       <c r="G64" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H64" s="33" t="n">
+      <c r="H64" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I64" s="27"/>
@@ -3553,7 +3651,7 @@
       <c r="G65" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H65" s="33" t="n">
+      <c r="H65" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I65" s="27"/>
@@ -3578,7 +3676,7 @@
       <c r="G66" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H66" s="33" t="n">
+      <c r="H66" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I66" s="27"/>
@@ -3603,7 +3701,7 @@
       <c r="G67" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H67" s="33" t="n">
+      <c r="H67" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I67" s="27"/>
@@ -3628,7 +3726,7 @@
       <c r="G68" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H68" s="33" t="n">
+      <c r="H68" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I68" s="27"/>
@@ -3653,7 +3751,7 @@
       <c r="G69" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H69" s="33" t="n">
+      <c r="H69" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I69" s="27"/>
@@ -3678,7 +3776,7 @@
       <c r="G70" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H70" s="33" t="n">
+      <c r="H70" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I70" s="27"/>
@@ -3703,7 +3801,7 @@
       <c r="G71" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H71" s="33" t="n">
+      <c r="H71" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I71" s="27"/>
@@ -3728,7 +3826,7 @@
       <c r="G72" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H72" s="33" t="n">
+      <c r="H72" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I72" s="27"/>
@@ -3753,7 +3851,7 @@
       <c r="G73" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H73" s="33" t="n">
+      <c r="H73" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I73" s="27"/>
@@ -3778,14 +3876,14 @@
       <c r="G74" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H74" s="33" t="n">
+      <c r="H74" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I74" s="27"/>
       <c r="J74" s="27"/>
       <c r="K74" s="27"/>
     </row>
-    <row r="75" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>72</v>
@@ -3803,7 +3901,7 @@
       <c r="G75" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H75" s="33" t="n">
+      <c r="H75" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I75" s="27"/>
@@ -3825,9 +3923,15 @@
       <c r="E76" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
+      <c r="F76" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I76" s="27"/>
       <c r="J76" s="27"/>
       <c r="K76" s="27"/>
@@ -3844,9 +3948,15 @@
       <c r="E77" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
+      <c r="F77" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I77" s="27"/>
       <c r="J77" s="27"/>
       <c r="K77" s="27"/>
@@ -3863,9 +3973,15 @@
       <c r="E78" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
+      <c r="F78" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G78" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I78" s="27"/>
       <c r="J78" s="27"/>
       <c r="K78" s="27"/>
@@ -3882,9 +3998,15 @@
       <c r="E79" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
+      <c r="F79" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H79" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I79" s="27"/>
       <c r="J79" s="27"/>
       <c r="K79" s="27"/>
@@ -3901,9 +4023,15 @@
       <c r="E80" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
+      <c r="F80" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I80" s="27"/>
       <c r="J80" s="27"/>
       <c r="K80" s="27"/>
@@ -3920,9 +4048,15 @@
       <c r="E81" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
+      <c r="F81" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G81" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I81" s="27"/>
       <c r="J81" s="27"/>
       <c r="K81" s="27"/>
@@ -3939,9 +4073,15 @@
       <c r="E82" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
+      <c r="F82" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G82" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I82" s="27"/>
       <c r="J82" s="27"/>
       <c r="K82" s="27"/>
@@ -3958,9 +4098,15 @@
       <c r="E83" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
+      <c r="F83" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G83" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I83" s="27"/>
       <c r="J83" s="27"/>
       <c r="K83" s="27"/>
@@ -3977,9 +4123,15 @@
       <c r="E84" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
+      <c r="F84" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I84" s="27"/>
       <c r="J84" s="27"/>
       <c r="K84" s="27"/>
@@ -3996,9 +4148,15 @@
       <c r="E85" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
+      <c r="F85" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H85" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I85" s="27"/>
       <c r="J85" s="27"/>
       <c r="K85" s="27"/>
@@ -4010,14 +4168,20 @@
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="26" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E86" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
+      <c r="F86" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H86" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I86" s="27"/>
       <c r="J86" s="27"/>
       <c r="K86" s="27"/>
@@ -4029,14 +4193,20 @@
       </c>
       <c r="C87" s="24"/>
       <c r="D87" s="26" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E87" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
+      <c r="F87" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H87" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I87" s="27"/>
       <c r="J87" s="27"/>
       <c r="K87" s="27"/>
@@ -4048,14 +4218,20 @@
       </c>
       <c r="C88" s="24"/>
       <c r="D88" s="26" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E88" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
+      <c r="F88" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H88" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I88" s="27"/>
       <c r="J88" s="27"/>
       <c r="K88" s="27"/>
@@ -4067,14 +4243,20 @@
       </c>
       <c r="C89" s="24"/>
       <c r="D89" s="26" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E89" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
+      <c r="F89" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I89" s="27"/>
       <c r="J89" s="27"/>
       <c r="K89" s="27"/>
@@ -4091,9 +4273,15 @@
       <c r="E90" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
+      <c r="F90" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G90" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H90" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I90" s="27"/>
       <c r="J90" s="27"/>
       <c r="K90" s="27"/>
@@ -4105,14 +4293,20 @@
       </c>
       <c r="C91" s="24"/>
       <c r="D91" s="26" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
+      <c r="F91" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G91" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I91" s="27"/>
       <c r="J91" s="27"/>
       <c r="K91" s="27"/>
@@ -4124,14 +4318,20 @@
       </c>
       <c r="C92" s="24"/>
       <c r="D92" s="26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E92" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
+      <c r="F92" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G92" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H92" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I92" s="27"/>
       <c r="J92" s="27"/>
       <c r="K92" s="27"/>
@@ -4143,14 +4343,20 @@
       </c>
       <c r="C93" s="24"/>
       <c r="D93" s="26" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E93" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
+      <c r="F93" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G93" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H93" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I93" s="27"/>
       <c r="J93" s="27"/>
       <c r="K93" s="27"/>
@@ -4161,15 +4367,21 @@
         <v>91</v>
       </c>
       <c r="C94" s="24"/>
-      <c r="D94" s="26" t="s">
-        <v>122</v>
+      <c r="D94" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="E94" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
+      <c r="F94" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I94" s="27"/>
       <c r="J94" s="27"/>
       <c r="K94" s="27"/>
@@ -4180,15 +4392,21 @@
         <v>92</v>
       </c>
       <c r="C95" s="24"/>
-      <c r="D95" s="26" t="s">
-        <v>123</v>
+      <c r="D95" s="35" t="s">
+        <v>124</v>
       </c>
       <c r="E95" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
+      <c r="F95" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G95" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H95" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I95" s="27"/>
       <c r="J95" s="27"/>
       <c r="K95" s="27"/>
@@ -4205,9 +4423,15 @@
       <c r="E96" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
+      <c r="F96" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G96" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I96" s="27"/>
       <c r="J96" s="27"/>
       <c r="K96" s="27"/>
@@ -4218,15 +4442,21 @@
         <v>94</v>
       </c>
       <c r="C97" s="24"/>
-      <c r="D97" s="34" t="s">
+      <c r="D97" s="36" t="s">
         <v>95</v>
       </c>
       <c r="E97" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
+      <c r="F97" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G97" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H97" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I97" s="27"/>
       <c r="J97" s="27"/>
       <c r="K97" s="27"/>
@@ -4237,20 +4467,26 @@
         <v>95</v>
       </c>
       <c r="C98" s="24"/>
-      <c r="D98" s="34" t="s">
+      <c r="D98" s="36" t="s">
         <v>97</v>
       </c>
       <c r="E98" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
+      <c r="F98" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G98" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I98" s="27"/>
       <c r="J98" s="27"/>
       <c r="K98" s="27"/>
     </row>
-    <row r="99" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>96</v>
@@ -4262,9 +4498,15 @@
       <c r="E99" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="28"/>
+      <c r="F99" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G99" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H99" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I99" s="27"/>
       <c r="J99" s="27"/>
       <c r="K99" s="27"/>
@@ -4279,7 +4521,7 @@
         <v>24</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E100" s="26" t="s">
         <v>119</v>
@@ -4290,7 +4532,9 @@
       <c r="G100" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H100" s="27"/>
+      <c r="H100" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I100" s="27"/>
       <c r="J100" s="27"/>
       <c r="K100" s="27"/>
@@ -4313,7 +4557,9 @@
       <c r="G101" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H101" s="27"/>
+      <c r="H101" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I101" s="27"/>
       <c r="J101" s="27"/>
       <c r="K101" s="27"/>
@@ -4324,7 +4570,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="24"/>
-      <c r="D102" s="34" t="s">
+      <c r="D102" s="36" t="s">
         <v>95</v>
       </c>
       <c r="E102" s="26" t="s">
@@ -4336,7 +4582,9 @@
       <c r="G102" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H102" s="27"/>
+      <c r="H102" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I102" s="27"/>
       <c r="J102" s="27"/>
       <c r="K102" s="27"/>
@@ -4347,7 +4595,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="24"/>
-      <c r="D103" s="34" t="s">
+      <c r="D103" s="36" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="26" t="s">
@@ -4359,12 +4607,14 @@
       <c r="G103" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H103" s="27"/>
+      <c r="H103" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I103" s="27"/>
       <c r="J103" s="27"/>
       <c r="K103" s="27"/>
     </row>
-    <row r="104" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>101</v>
@@ -4382,7 +4632,9 @@
       <c r="G104" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H104" s="28"/>
+      <c r="H104" s="33" t="n">
+        <v>45889</v>
+      </c>
       <c r="I104" s="27"/>
       <c r="J104" s="27"/>
       <c r="K104" s="27"/>
@@ -4394,13 +4646,13 @@
         <v>102</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
@@ -4409,17 +4661,17 @@
       <c r="J105" s="27"/>
       <c r="K105" s="27"/>
     </row>
-    <row r="106" customFormat="false" ht="106.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>103</v>
       </c>
       <c r="C106" s="24"/>
       <c r="D106" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F106" s="27"/>
       <c r="G106" s="27"/>
@@ -4428,17 +4680,17 @@
       <c r="J106" s="27"/>
       <c r="K106" s="27"/>
     </row>
-    <row r="107" customFormat="false" ht="106.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>104</v>
       </c>
       <c r="C107" s="24"/>
       <c r="D107" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
@@ -4447,17 +4699,17 @@
       <c r="J107" s="27"/>
       <c r="K107" s="27"/>
     </row>
-    <row r="108" customFormat="false" ht="106.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>105</v>
       </c>
       <c r="C108" s="24"/>
       <c r="D108" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
@@ -4466,17 +4718,17 @@
       <c r="J108" s="27"/>
       <c r="K108" s="27"/>
     </row>
-    <row r="109" customFormat="false" ht="106.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>106</v>
       </c>
       <c r="C109" s="24"/>
       <c r="D109" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F109" s="27"/>
       <c r="G109" s="27"/>
@@ -4485,7 +4737,7 @@
       <c r="J109" s="27"/>
       <c r="K109" s="27"/>
     </row>
-    <row r="110" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>107</v>

--- a/RT1_Oracle_開発演習_テスト仕様書_team_1.0.0.xlsx
+++ b/RT1_Oracle_開発演習_テスト仕様書_team_1.0.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="137">
   <si>
     <t xml:space="preserve">関係者外秘</t>
   </si>
@@ -896,11 +896,11 @@
   </si>
   <si>
     <t xml:space="preserve">更新機能でそれぞれ以下の入力を行う。記載なしの項目は未入力のままにすること。
-社員ID：
+社員ID：1
 社員名：
 性別：
 生年月日：
-部署名：</t>
+部署名：3</t>
   </si>
   <si>
     <r>
@@ -930,6 +930,14 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">更新機能でそれぞれ以下の入力を行う。記載なしの項目は未入力のままにすること。
+社員ID：1
+社員名：三浦太郎
+性別：
+生年月日：
+部署名：</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -976,6 +984,14 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">更新機能でそれぞれ以下の入力を行う。記載なしの項目は未入力のままにすること。
+社員ID：
+社員名：
+性別：2
+生年月日：
+部署名：</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1031,6 +1047,14 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">更新機能でそれぞれ以下の入力を行う。記載なしの項目は未入力のままにすること。
+社員ID：
+社員名：
+性別：
+生年月日：1985/10/12
+部署名：</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1074,6 +1098,14 @@
       </rPr>
       <t xml:space="preserve">部署名：営業部</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">更新機能でそれぞれ以下の入力を行う。記載なしの項目は未入力のままにすること。
+社員ID：
+社員名：
+性別：
+生年月日：
+部署名：</t>
   </si>
   <si>
     <r>
@@ -1106,14 +1138,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="[$-411]yyyy/m/d"/>
     <numFmt numFmtId="168" formatCode="[$-411]yyyy/m/d\ h:mm"/>
     <numFmt numFmtId="169" formatCode="m\月d\日"/>
-    <numFmt numFmtId="170" formatCode="m\月d\日"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -1335,7 +1366,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1468,15 +1499,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1671,7 +1694,7 @@
   </sheetPr>
   <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1747,7 +1770,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1794,7 +1817,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1823,8 +1846,12 @@
       <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
@@ -1833,8 +1860,12 @@
       <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
@@ -1843,8 +1874,12 @@
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
@@ -1853,8 +1888,12 @@
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
@@ -1863,8 +1902,12 @@
       <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
@@ -1873,8 +1916,12 @@
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
@@ -1883,18 +1930,26 @@
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
@@ -1903,8 +1958,12 @@
       <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
@@ -1913,8 +1972,12 @@
       <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
@@ -1923,8 +1986,12 @@
       <c r="B12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
@@ -1933,8 +2000,12 @@
       <c r="B13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
@@ -1943,8 +2014,12 @@
       <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
@@ -1953,8 +2028,12 @@
       <c r="B15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1980,7 +2059,7 @@
   </sheetPr>
   <dimension ref="B1:M110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2986,7 +3065,7 @@
       <c r="G39" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="33" t="n">
+      <c r="H39" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I39" s="27"/>
@@ -3011,7 +3090,7 @@
       <c r="G40" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="33" t="n">
+      <c r="H40" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I40" s="27"/>
@@ -3036,7 +3115,7 @@
       <c r="G41" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="33" t="n">
+      <c r="H41" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I41" s="27"/>
@@ -3061,7 +3140,7 @@
       <c r="G42" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="33" t="n">
+      <c r="H42" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I42" s="27"/>
@@ -3086,14 +3165,14 @@
       <c r="G43" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="33" t="n">
+      <c r="H43" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I43" s="27"/>
       <c r="J43" s="27"/>
       <c r="K43" s="27"/>
     </row>
-    <row r="44" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>41</v>
@@ -3111,7 +3190,7 @@
       <c r="G44" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="33" t="n">
+      <c r="H44" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I44" s="27"/>
@@ -3242,7 +3321,7 @@
       <c r="G49" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="33" t="n">
+      <c r="H49" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I49" s="27"/>
@@ -3267,7 +3346,7 @@
       <c r="G50" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="33" t="n">
+      <c r="H50" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I50" s="27"/>
@@ -3292,7 +3371,7 @@
       <c r="G51" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="33" t="n">
+      <c r="H51" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I51" s="27"/>
@@ -3317,7 +3396,7 @@
       <c r="G52" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="33" t="n">
+      <c r="H52" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I52" s="27"/>
@@ -3342,7 +3421,7 @@
       <c r="G53" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H53" s="33" t="n">
+      <c r="H53" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I53" s="27"/>
@@ -3367,14 +3446,14 @@
       <c r="G54" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="33" t="n">
+      <c r="H54" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
       <c r="K54" s="27"/>
     </row>
-    <row r="55" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>52</v>
@@ -3392,7 +3471,7 @@
       <c r="G55" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="33" t="n">
+      <c r="H55" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I55" s="27"/>
@@ -3929,7 +4008,7 @@
       <c r="G76" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H76" s="33" t="n">
+      <c r="H76" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I76" s="27"/>
@@ -3954,7 +4033,7 @@
       <c r="G77" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H77" s="33" t="n">
+      <c r="H77" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I77" s="27"/>
@@ -3979,7 +4058,7 @@
       <c r="G78" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H78" s="33" t="n">
+      <c r="H78" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I78" s="27"/>
@@ -4004,7 +4083,7 @@
       <c r="G79" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H79" s="33" t="n">
+      <c r="H79" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I79" s="27"/>
@@ -4029,7 +4108,7 @@
       <c r="G80" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H80" s="33" t="n">
+      <c r="H80" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I80" s="27"/>
@@ -4054,7 +4133,7 @@
       <c r="G81" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H81" s="33" t="n">
+      <c r="H81" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I81" s="27"/>
@@ -4079,7 +4158,7 @@
       <c r="G82" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H82" s="33" t="n">
+      <c r="H82" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I82" s="27"/>
@@ -4104,7 +4183,7 @@
       <c r="G83" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="33" t="n">
+      <c r="H83" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I83" s="27"/>
@@ -4129,7 +4208,7 @@
       <c r="G84" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H84" s="33" t="n">
+      <c r="H84" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I84" s="27"/>
@@ -4154,7 +4233,7 @@
       <c r="G85" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H85" s="33" t="n">
+      <c r="H85" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I85" s="27"/>
@@ -4179,7 +4258,7 @@
       <c r="G86" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H86" s="33" t="n">
+      <c r="H86" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I86" s="27"/>
@@ -4204,7 +4283,7 @@
       <c r="G87" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H87" s="33" t="n">
+      <c r="H87" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I87" s="27"/>
@@ -4229,7 +4308,7 @@
       <c r="G88" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H88" s="33" t="n">
+      <c r="H88" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I88" s="27"/>
@@ -4254,7 +4333,7 @@
       <c r="G89" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="33" t="n">
+      <c r="H89" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I89" s="27"/>
@@ -4279,7 +4358,7 @@
       <c r="G90" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H90" s="33" t="n">
+      <c r="H90" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I90" s="27"/>
@@ -4304,7 +4383,7 @@
       <c r="G91" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="33" t="n">
+      <c r="H91" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I91" s="27"/>
@@ -4329,7 +4408,7 @@
       <c r="G92" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H92" s="33" t="n">
+      <c r="H92" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I92" s="27"/>
@@ -4354,7 +4433,7 @@
       <c r="G93" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H93" s="33" t="n">
+      <c r="H93" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I93" s="27"/>
@@ -4367,7 +4446,7 @@
         <v>91</v>
       </c>
       <c r="C94" s="24"/>
-      <c r="D94" s="34" t="s">
+      <c r="D94" s="33" t="s">
         <v>123</v>
       </c>
       <c r="E94" s="26" t="s">
@@ -4379,7 +4458,7 @@
       <c r="G94" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="33" t="n">
+      <c r="H94" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I94" s="27"/>
@@ -4392,7 +4471,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="24"/>
-      <c r="D95" s="35" t="s">
+      <c r="D95" s="26" t="s">
         <v>124</v>
       </c>
       <c r="E95" s="26" t="s">
@@ -4404,7 +4483,7 @@
       <c r="G95" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H95" s="33" t="n">
+      <c r="H95" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I95" s="27"/>
@@ -4429,7 +4508,7 @@
       <c r="G96" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H96" s="33" t="n">
+      <c r="H96" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I96" s="27"/>
@@ -4442,7 +4521,7 @@
         <v>94</v>
       </c>
       <c r="C97" s="24"/>
-      <c r="D97" s="36" t="s">
+      <c r="D97" s="34" t="s">
         <v>95</v>
       </c>
       <c r="E97" s="26" t="s">
@@ -4454,7 +4533,7 @@
       <c r="G97" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H97" s="33" t="n">
+      <c r="H97" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I97" s="27"/>
@@ -4467,7 +4546,7 @@
         <v>95</v>
       </c>
       <c r="C98" s="24"/>
-      <c r="D98" s="36" t="s">
+      <c r="D98" s="34" t="s">
         <v>97</v>
       </c>
       <c r="E98" s="26" t="s">
@@ -4479,14 +4558,14 @@
       <c r="G98" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H98" s="33" t="n">
+      <c r="H98" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I98" s="27"/>
       <c r="J98" s="27"/>
       <c r="K98" s="27"/>
     </row>
-    <row r="99" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>96</v>
@@ -4504,7 +4583,7 @@
       <c r="G99" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H99" s="33" t="n">
+      <c r="H99" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I99" s="27"/>
@@ -4532,7 +4611,7 @@
       <c r="G100" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H100" s="33" t="n">
+      <c r="H100" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I100" s="27"/>
@@ -4557,7 +4636,7 @@
       <c r="G101" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H101" s="33" t="n">
+      <c r="H101" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I101" s="27"/>
@@ -4570,7 +4649,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="24"/>
-      <c r="D102" s="36" t="s">
+      <c r="D102" s="34" t="s">
         <v>95</v>
       </c>
       <c r="E102" s="26" t="s">
@@ -4582,7 +4661,7 @@
       <c r="G102" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H102" s="33" t="n">
+      <c r="H102" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I102" s="27"/>
@@ -4595,7 +4674,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="24"/>
-      <c r="D103" s="36" t="s">
+      <c r="D103" s="34" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="26" t="s">
@@ -4607,14 +4686,14 @@
       <c r="G103" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H103" s="33" t="n">
+      <c r="H103" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I103" s="27"/>
       <c r="J103" s="27"/>
       <c r="K103" s="27"/>
     </row>
-    <row r="104" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>101</v>
@@ -4632,7 +4711,7 @@
       <c r="G104" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H104" s="33" t="n">
+      <c r="H104" s="31" t="n">
         <v>45889</v>
       </c>
       <c r="I104" s="27"/>
@@ -4654,90 +4733,120 @@
       <c r="E105" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
+      <c r="F105" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G105" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H105" s="31" t="n">
+        <v>45889</v>
+      </c>
       <c r="I105" s="27"/>
       <c r="J105" s="27"/>
       <c r="K105" s="27"/>
     </row>
-    <row r="106" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="106.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>103</v>
       </c>
       <c r="C106" s="24"/>
       <c r="D106" s="26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
+        <v>130</v>
+      </c>
+      <c r="F106" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G106" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H106" s="31" t="n">
+        <v>45889</v>
+      </c>
       <c r="I106" s="27"/>
       <c r="J106" s="27"/>
       <c r="K106" s="27"/>
     </row>
-    <row r="107" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="106.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>104</v>
       </c>
       <c r="C107" s="24"/>
       <c r="D107" s="26" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
+        <v>132</v>
+      </c>
+      <c r="F107" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G107" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107" s="31" t="n">
+        <v>45889</v>
+      </c>
       <c r="I107" s="27"/>
       <c r="J107" s="27"/>
       <c r="K107" s="27"/>
     </row>
-    <row r="108" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="106.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>105</v>
       </c>
       <c r="C108" s="24"/>
       <c r="D108" s="26" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
+        <v>134</v>
+      </c>
+      <c r="F108" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G108" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H108" s="31" t="n">
+        <v>45889</v>
+      </c>
       <c r="I108" s="27"/>
       <c r="J108" s="27"/>
       <c r="K108" s="27"/>
     </row>
-    <row r="109" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="106.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>106</v>
       </c>
       <c r="C109" s="24"/>
       <c r="D109" s="26" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
+        <v>136</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G109" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H109" s="31" t="n">
+        <v>45889</v>
+      </c>
       <c r="I109" s="27"/>
       <c r="J109" s="27"/>
       <c r="K109" s="27"/>
     </row>
-    <row r="110" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>107</v>
@@ -4749,9 +4858,15 @@
       <c r="E110" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="28"/>
+      <c r="F110" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G110" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110" s="31" t="n">
+        <v>45889</v>
+      </c>
       <c r="I110" s="27"/>
       <c r="J110" s="27"/>
       <c r="K110" s="27"/>

--- a/RT1_Oracle_開発演習_テスト仕様書_team_1.0.0.xlsx
+++ b/RT1_Oracle_開発演習_テスト仕様書_team_1.0.0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="138">
   <si>
     <t xml:space="preserve">関係者外秘</t>
   </si>
@@ -358,7 +358,7 @@
   </si>
   <si>
     <t xml:space="preserve">メニュー画面にて下記内容を入力
-入力内容：XXXX</t>
+入力内容：3</t>
   </si>
   <si>
     <t xml:space="preserve">下記のメッセージが表示され、入力状態となる。
@@ -367,7 +367,7 @@
   <si>
     <t xml:space="preserve">※右セルの赤文字を検索キーとする
 メッセージ「部署ID(1：営業部、2：経理部、3：総務部)を入力してください:」の後に下記内容を入力
-入力内容：XXXX</t>
+入力内容：2</t>
   </si>
   <si>
     <r>
@@ -436,7 +436,7 @@
   </si>
   <si>
     <t xml:space="preserve">メッセージ「部署ID(1：営業部、2：経理部、3：総務部)を入力してください:」の後に下記内容を入力
-入力内容：XXXX</t>
+入力内容：3</t>
   </si>
   <si>
     <t xml:space="preserve">1.下記のメッセージが表示される。
@@ -579,33 +579,37 @@
     <t xml:space="preserve">社員更新</t>
   </si>
   <si>
+    <t xml:space="preserve">メニュー画面にて下記内容を入力
+入力内容：5</t>
+  </si>
+  <si>
     <t xml:space="preserve">下記のメッセージが表示され、入力状態となる。
 メッセージ内容：更新する社員の社員IDを入力してください:</t>
   </si>
   <si>
     <t xml:space="preserve">※登録項目はNo22の表示結果に合わせること
 メッセージ「更新する社員の社員IDを入力してください:」の後に、前述の登録処理で登録された社員情報の社員IDを入力
-入力内容：XXXX</t>
+入力内容：6</t>
   </si>
   <si>
     <t xml:space="preserve">※登録項目はNo22の表示結果に合わせること
 社員名に下記内容を入力
-入力内容：XXXX</t>
+入力内容：山川幸子</t>
   </si>
   <si>
     <t xml:space="preserve">※登録項目はNo22の表示結果に合わせること
 性別を下記の内容を入力
-入力内容：XXXX</t>
+入力内容：2</t>
   </si>
   <si>
     <t xml:space="preserve">※登録項目はNo22の表示結果に合わせること
 生年月日に下記内容を入力
-入力内容：XXXX</t>
+入力内容：2002/02/02</t>
   </si>
   <si>
     <t xml:space="preserve">※登録項目はNo22の表示結果に合わせること
 部署IDに下記内容を入力
-入力内容：XXXX</t>
+入力内容：2</t>
   </si>
   <si>
     <t xml:space="preserve">1. 下記のメッセージが表示される。
@@ -711,7 +715,7 @@
   </si>
   <si>
     <t xml:space="preserve">メッセージ「更新する社員の社員IDを入力してください:」の後に、存在しない社員IDを入力する
-入力内容：XXXX</t>
+入力内容：99</t>
   </si>
   <si>
     <t xml:space="preserve">1.下記のメッセージが表示される。
@@ -1694,7 +1698,7 @@
   </sheetPr>
   <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1769,7 +1773,7 @@
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1816,7 +1820,7 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1937,7 +1941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
@@ -2059,7 +2063,7 @@
   </sheetPr>
   <dimension ref="B1:M110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2435,7 +2439,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" customFormat="false" ht="212" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="211.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>12</v>
@@ -2460,7 +2464,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
     </row>
-    <row r="16" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>13</v>
@@ -2698,10 +2702,10 @@
         <v>75</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>42</v>
@@ -2716,14 +2720,14 @@
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
     </row>
-    <row r="26" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>23</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>65</v>
@@ -2741,14 +2745,14 @@
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
     </row>
-    <row r="27" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>24</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>67</v>
@@ -2766,14 +2770,14 @@
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
     </row>
-    <row r="28" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>25</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>69</v>
@@ -2798,7 +2802,7 @@
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E29" s="26" t="s">
         <v>71</v>
@@ -2823,10 +2827,10 @@
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F30" s="27" t="s">
         <v>42</v>
@@ -2841,17 +2845,17 @@
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
     </row>
-    <row r="31" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="93.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>28</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="26" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F31" s="27" t="s">
         <v>42</v>
@@ -2873,10 +2877,10 @@
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F32" s="27" t="s">
         <v>42</v>
@@ -2926,10 +2930,10 @@
         <v>18</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F34" s="27" t="s">
         <v>42</v>
@@ -2951,10 +2955,10 @@
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F35" s="27" t="s">
         <v>42</v>
@@ -2976,10 +2980,10 @@
       </c>
       <c r="C36" s="24"/>
       <c r="D36" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F36" s="27" t="s">
         <v>42</v>
@@ -3004,7 +3008,7 @@
         <v>49</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F37" s="27" t="s">
         <v>42</v>
@@ -3054,10 +3058,10 @@
         <v>19</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F39" s="27" t="s">
         <v>42</v>
@@ -3079,10 +3083,10 @@
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="26" t="s">
         <v>94</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>93</v>
       </c>
       <c r="F40" s="27" t="s">
         <v>42</v>
@@ -3104,10 +3108,10 @@
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F41" s="27" t="s">
         <v>42</v>
@@ -3129,10 +3133,10 @@
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F42" s="27" t="s">
         <v>42</v>
@@ -3154,10 +3158,10 @@
       </c>
       <c r="C43" s="24"/>
       <c r="D43" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F43" s="27" t="s">
         <v>42</v>
@@ -3207,10 +3211,10 @@
         <v>20</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F45" s="27" t="s">
         <v>42</v>
@@ -3232,10 +3236,10 @@
       </c>
       <c r="C46" s="24"/>
       <c r="D46" s="26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F46" s="27" t="s">
         <v>42</v>
@@ -3257,10 +3261,10 @@
       </c>
       <c r="C47" s="24"/>
       <c r="D47" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F47" s="27" t="s">
         <v>42</v>
@@ -3310,10 +3314,10 @@
         <v>21</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F49" s="27" t="s">
         <v>42</v>
@@ -3335,10 +3339,10 @@
       </c>
       <c r="C50" s="24"/>
       <c r="D50" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="26" t="s">
         <v>102</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>101</v>
       </c>
       <c r="F50" s="27" t="s">
         <v>42</v>
@@ -3360,10 +3364,10 @@
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F51" s="27" t="s">
         <v>42</v>
@@ -3385,10 +3389,10 @@
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F52" s="27" t="s">
         <v>42</v>
@@ -3410,10 +3414,10 @@
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F53" s="27" t="s">
         <v>42</v>
@@ -3435,10 +3439,10 @@
       </c>
       <c r="C54" s="24"/>
       <c r="D54" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F54" s="27" t="s">
         <v>42</v>
@@ -3488,10 +3492,10 @@
         <v>22</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F56" s="27" t="s">
         <v>42</v>
@@ -3513,10 +3517,10 @@
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F57" s="27" t="s">
         <v>42</v>
@@ -3538,10 +3542,10 @@
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F58" s="27" t="s">
         <v>42</v>
@@ -3563,10 +3567,10 @@
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F59" s="27" t="s">
         <v>42</v>
@@ -3588,10 +3592,10 @@
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F60" s="27" t="s">
         <v>42</v>
@@ -3613,10 +3617,10 @@
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F61" s="27" t="s">
         <v>47</v>
@@ -3644,10 +3648,10 @@
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F62" s="27" t="s">
         <v>42</v>
@@ -3669,10 +3673,10 @@
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" s="26" t="s">
         <v>109</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>108</v>
       </c>
       <c r="F63" s="27" t="s">
         <v>42</v>
@@ -3694,10 +3698,10 @@
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F64" s="27" t="s">
         <v>42</v>
@@ -3719,10 +3723,10 @@
       </c>
       <c r="C65" s="24"/>
       <c r="D65" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F65" s="27" t="s">
         <v>42</v>
@@ -3744,10 +3748,10 @@
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F66" s="27" t="s">
         <v>42</v>
@@ -3769,10 +3773,10 @@
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F67" s="27" t="s">
         <v>42</v>
@@ -3794,10 +3798,10 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F68" s="27" t="s">
         <v>42</v>
@@ -3819,10 +3823,10 @@
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F69" s="27" t="s">
         <v>42</v>
@@ -3844,10 +3848,10 @@
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F70" s="27" t="s">
         <v>42</v>
@@ -3869,10 +3873,10 @@
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F71" s="27" t="s">
         <v>42</v>
@@ -3894,10 +3898,10 @@
       </c>
       <c r="C72" s="24"/>
       <c r="D72" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="26" t="s">
         <v>102</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>101</v>
       </c>
       <c r="F72" s="27" t="s">
         <v>42</v>
@@ -3919,10 +3923,10 @@
       </c>
       <c r="C73" s="24"/>
       <c r="D73" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F73" s="27" t="s">
         <v>42</v>
@@ -3944,10 +3948,10 @@
       </c>
       <c r="C74" s="24"/>
       <c r="D74" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F74" s="27" t="s">
         <v>42</v>
@@ -3997,10 +4001,10 @@
         <v>23</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F76" s="27" t="s">
         <v>42</v>
@@ -4022,10 +4026,10 @@
       </c>
       <c r="C77" s="24"/>
       <c r="D77" s="26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F77" s="27" t="s">
         <v>42</v>
@@ -4047,10 +4051,10 @@
       </c>
       <c r="C78" s="24"/>
       <c r="D78" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F78" s="27" t="s">
         <v>42</v>
@@ -4072,10 +4076,10 @@
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F79" s="27" t="s">
         <v>42</v>
@@ -4097,10 +4101,10 @@
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F80" s="27" t="s">
         <v>42</v>
@@ -4122,10 +4126,10 @@
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F81" s="27" t="s">
         <v>42</v>
@@ -4147,10 +4151,10 @@
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F82" s="27" t="s">
         <v>42</v>
@@ -4172,10 +4176,10 @@
       </c>
       <c r="C83" s="24"/>
       <c r="D83" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F83" s="27" t="s">
         <v>42</v>
@@ -4197,10 +4201,10 @@
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F84" s="27" t="s">
         <v>42</v>
@@ -4222,10 +4226,10 @@
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F85" s="27" t="s">
         <v>42</v>
@@ -4247,10 +4251,10 @@
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F86" s="27" t="s">
         <v>42</v>
@@ -4272,10 +4276,10 @@
       </c>
       <c r="C87" s="24"/>
       <c r="D87" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E87" s="26" t="s">
         <v>109</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>108</v>
       </c>
       <c r="F87" s="27" t="s">
         <v>42</v>
@@ -4297,10 +4301,10 @@
       </c>
       <c r="C88" s="24"/>
       <c r="D88" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F88" s="27" t="s">
         <v>42</v>
@@ -4322,10 +4326,10 @@
       </c>
       <c r="C89" s="24"/>
       <c r="D89" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F89" s="27" t="s">
         <v>42</v>
@@ -4347,10 +4351,10 @@
       </c>
       <c r="C90" s="24"/>
       <c r="D90" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F90" s="27" t="s">
         <v>42</v>
@@ -4372,10 +4376,10 @@
       </c>
       <c r="C91" s="24"/>
       <c r="D91" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F91" s="27" t="s">
         <v>42</v>
@@ -4397,10 +4401,10 @@
       </c>
       <c r="C92" s="24"/>
       <c r="D92" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F92" s="27" t="s">
         <v>42</v>
@@ -4422,10 +4426,10 @@
       </c>
       <c r="C93" s="24"/>
       <c r="D93" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F93" s="27" t="s">
         <v>42</v>
@@ -4447,10 +4451,10 @@
       </c>
       <c r="C94" s="24"/>
       <c r="D94" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F94" s="27" t="s">
         <v>42</v>
@@ -4472,10 +4476,10 @@
       </c>
       <c r="C95" s="24"/>
       <c r="D95" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F95" s="27" t="s">
         <v>42</v>
@@ -4497,10 +4501,10 @@
       </c>
       <c r="C96" s="24"/>
       <c r="D96" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F96" s="27" t="s">
         <v>42</v>
@@ -4522,10 +4526,10 @@
       </c>
       <c r="C97" s="24"/>
       <c r="D97" s="34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F97" s="27" t="s">
         <v>42</v>
@@ -4547,10 +4551,10 @@
       </c>
       <c r="C98" s="24"/>
       <c r="D98" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F98" s="27" t="s">
         <v>42</v>
@@ -4600,10 +4604,10 @@
         <v>24</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F100" s="27" t="s">
         <v>42</v>
@@ -4625,10 +4629,10 @@
       </c>
       <c r="C101" s="24"/>
       <c r="D101" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F101" s="27" t="s">
         <v>42</v>
@@ -4650,10 +4654,10 @@
       </c>
       <c r="C102" s="24"/>
       <c r="D102" s="34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F102" s="27" t="s">
         <v>42</v>
@@ -4675,10 +4679,10 @@
       </c>
       <c r="C103" s="24"/>
       <c r="D103" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F103" s="27" t="s">
         <v>42</v>
@@ -4725,13 +4729,13 @@
         <v>102</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F105" s="27" t="s">
         <v>42</v>
@@ -4746,17 +4750,17 @@
       <c r="J105" s="27"/>
       <c r="K105" s="27"/>
     </row>
-    <row r="106" customFormat="false" ht="106.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>103</v>
       </c>
       <c r="C106" s="24"/>
       <c r="D106" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F106" s="27" t="s">
         <v>42</v>
@@ -4771,17 +4775,17 @@
       <c r="J106" s="27"/>
       <c r="K106" s="27"/>
     </row>
-    <row r="107" customFormat="false" ht="106.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>104</v>
       </c>
       <c r="C107" s="24"/>
       <c r="D107" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F107" s="27" t="s">
         <v>42</v>
@@ -4796,17 +4800,17 @@
       <c r="J107" s="27"/>
       <c r="K107" s="27"/>
     </row>
-    <row r="108" customFormat="false" ht="106.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>105</v>
       </c>
       <c r="C108" s="24"/>
       <c r="D108" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F108" s="27" t="s">
         <v>42</v>
@@ -4821,17 +4825,17 @@
       <c r="J108" s="27"/>
       <c r="K108" s="27"/>
     </row>
-    <row r="109" customFormat="false" ht="106.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="107" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>106</v>
       </c>
       <c r="C109" s="24"/>
       <c r="D109" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F109" s="27" t="s">
         <v>42</v>
@@ -4846,7 +4850,7 @@
       <c r="J109" s="27"/>
       <c r="K109" s="27"/>
     </row>
-    <row r="110" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="23" t="n">
         <f aca="false">ROW()-3</f>
         <v>107</v>
